--- a/analysis/mails_01/P11_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-14</t>
+    <t xml:space="preserve">14/12/2021 10:55</t>
   </si>
   <si>
     <t xml:space="preserve">coast</t>
@@ -81,7 +81,10 @@
     <t xml:space="preserve">MFD10196</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-04-22</t>
+    <t xml:space="preserve">54.8474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4796</t>
   </si>
   <si>
     <t xml:space="preserve">1101</t>
@@ -102,6 +105,12 @@
     <t xml:space="preserve">MFD10197</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6193</t>
+  </si>
+  <si>
     <t xml:space="preserve">1103</t>
   </si>
   <si>
@@ -114,6 +123,12 @@
     <t xml:space="preserve">MFD10198</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0731</t>
+  </si>
+  <si>
     <t xml:space="preserve">fjords</t>
   </si>
   <si>
@@ -132,6 +147,12 @@
     <t xml:space="preserve">MFD10199</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1173</t>
+  </si>
+  <si>
     <t xml:space="preserve">1102</t>
   </si>
   <si>
@@ -144,24 +165,48 @@
     <t xml:space="preserve">MFD10200</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2823</t>
+  </si>
+  <si>
     <t xml:space="preserve">køge bugt</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10201</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9598</t>
+  </si>
+  <si>
     <t xml:space="preserve">djursland</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10203</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2091</t>
+  </si>
+  <si>
     <t xml:space="preserve">hvalpsund</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10204</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8713</t>
+  </si>
+  <si>
     <t xml:space="preserve">1303</t>
   </si>
   <si>
@@ -174,6 +219,12 @@
     <t xml:space="preserve">MFD10205</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2397</t>
+  </si>
+  <si>
     <t xml:space="preserve">1302</t>
   </si>
   <si>
@@ -186,285 +237,693 @@
     <t xml:space="preserve">MFD10206</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6182</t>
+  </si>
+  <si>
     <t xml:space="preserve">odense fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10207</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2234</t>
+  </si>
+  <si>
     <t xml:space="preserve">aarhus</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10208</t>
   </si>
   <si>
+    <t xml:space="preserve">55.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0876</t>
+  </si>
+  <si>
     <t xml:space="preserve">præstø fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10209</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8194</t>
+  </si>
+  <si>
     <t xml:space="preserve">bornholm syd</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10210</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6145</t>
+  </si>
+  <si>
     <t xml:space="preserve">venø</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10211</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.728</t>
+  </si>
+  <si>
     <t xml:space="preserve">middelfart</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10212</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6181</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10213</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6347</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10215</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.286</t>
+  </si>
+  <si>
     <t xml:space="preserve">øster hurup</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10216</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1205</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10217</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9119</t>
+  </si>
+  <si>
     <t xml:space="preserve">bornholm nord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10219</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4936</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10220</t>
   </si>
   <si>
+    <t xml:space="preserve">56.607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2971</t>
+  </si>
+  <si>
     <t xml:space="preserve">randers fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10221</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3153</t>
+  </si>
+  <si>
     <t xml:space="preserve">vadehavet</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10222</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.101</t>
+  </si>
+  <si>
     <t xml:space="preserve">halsskov</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10223</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0176</t>
+  </si>
+  <si>
     <t xml:space="preserve">spodsbjerg lolland</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10224</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947</t>
+  </si>
+  <si>
     <t xml:space="preserve">øresund</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10225</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0709</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10226</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.615</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10227</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1329</t>
+  </si>
+  <si>
     <t xml:space="preserve">læsø</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10228</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.955</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10229</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1073</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10230</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6151</t>
+  </si>
+  <si>
     <t xml:space="preserve">hanstholm</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10231</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5027</t>
+  </si>
+  <si>
     <t xml:space="preserve">genner bugt</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10232</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0152</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10234</t>
   </si>
   <si>
+    <t xml:space="preserve">54.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4921</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10235</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0689</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10236</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9574</t>
+  </si>
+  <si>
     <t xml:space="preserve">hirtshals</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10237</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7151</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10238</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10239</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5935</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10240</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4624</t>
+  </si>
+  <si>
     <t xml:space="preserve">møn</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10241</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1282</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10242</t>
   </si>
   <si>
+    <t xml:space="preserve">55.703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6995</t>
+  </si>
+  <si>
     <t xml:space="preserve">vejle fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10243</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526</t>
+  </si>
+  <si>
     <t xml:space="preserve">frederikshavn</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10244</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8442</t>
+  </si>
+  <si>
     <t xml:space="preserve">hundested</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10245</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3223</t>
+  </si>
+  <si>
     <t xml:space="preserve">røsnæs</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10246</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4757</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10247</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10248</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8461</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10249</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10250</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9037</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10251</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5321</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10252</t>
   </si>
   <si>
+    <t xml:space="preserve">57.5921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9472</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10253</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2543</t>
+  </si>
+  <si>
     <t xml:space="preserve">dyreborg sydfyn</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10254</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6131</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10255</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7243</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10256</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8263</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10257</t>
   </si>
   <si>
+    <t xml:space="preserve">54.885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0135</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10258</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6091</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10260</t>
   </si>
   <si>
+    <t xml:space="preserve">57.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8705</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10261</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4882</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10262</t>
   </si>
   <si>
+    <t xml:space="preserve">55.759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3175</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10263</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3029</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10264</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.207</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10265</t>
   </si>
   <si>
+    <t xml:space="preserve">12.6027</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10266</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2194</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10267</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4066</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10268</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2865</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10269</t>
   </si>
   <si>
+    <t xml:space="preserve">55.328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1284</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10270</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6101</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10271</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0908</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10272</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6208</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10273</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2187</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10274</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5984</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10275</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3493</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10276</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1011</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10278</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7109</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10279</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2888</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10280</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD10281</t>
   </si>
   <si>
@@ -489,6 +948,12 @@
     <t xml:space="preserve">MFD10288</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4295</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10289</t>
   </si>
   <si>
@@ -558,6 +1023,12 @@
     <t xml:space="preserve">MFD10312</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4287</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10313</t>
   </si>
   <si>
@@ -667,6 +1138,12 @@
   </si>
   <si>
     <t xml:space="preserve">MFD10354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2548</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10355</t>
@@ -1176,22 +1653,22 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="n">
-        <v>54.8474</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.4796</v>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -1200,13 +1677,13 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
         <v>20</v>
@@ -1214,28 +1691,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.0422</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.6193</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -1244,13 +1721,13 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
         <v>20</v>
@@ -1258,28 +1735,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>55.6835</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.0731</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -1288,13 +1765,13 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>20</v>
@@ -1302,28 +1779,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>55.9967</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.1173</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -1332,13 +1809,13 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
         <v>20</v>
@@ -1346,28 +1823,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.5648</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.2823</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -1376,13 +1853,13 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
         <v>20</v>
@@ -1390,28 +1867,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56.4455</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.9598</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -1420,13 +1897,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
@@ -1434,28 +1911,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="n">
-        <v>56.7128</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.2091</v>
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1464,13 +1941,13 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -1478,28 +1955,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="n">
-        <v>57.0595</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.8713</v>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -1508,13 +1985,13 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
@@ -1522,28 +1999,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.0856</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.2397</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -1552,13 +2029,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
         <v>20</v>
@@ -1566,28 +2043,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="n">
-        <v>55.4941</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10.6182</v>
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1596,13 +2073,13 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
         <v>20</v>
@@ -1610,28 +2087,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56.1228</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.2234</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1640,13 +2117,13 @@
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
         <v>20</v>
@@ -1654,28 +2131,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>55.133</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.0876</v>
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1684,13 +2161,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
         <v>20</v>
@@ -1698,28 +2175,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="n">
-        <v>55.2571</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.8194</v>
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1728,13 +2205,13 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15" t="s">
         <v>20</v>
@@ -1742,28 +2219,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56.5503</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.6145</v>
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1772,13 +2249,13 @@
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
         <v>20</v>
@@ -1786,28 +2263,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>55.4898</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.728</v>
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -1816,13 +2293,13 @@
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
         <v>20</v>
@@ -1830,28 +2307,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>56.0411</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12.6181</v>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1860,13 +2337,13 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
         <v>20</v>
@@ -1874,28 +2351,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57.0103</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.6347</v>
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1904,13 +2381,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
         <v>20</v>
@@ -1918,28 +2395,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="n">
-        <v>56.7971</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10.286</v>
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1948,13 +2425,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
         <v>20</v>
@@ -1962,28 +2439,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="n">
-        <v>55.9898</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8.1205</v>
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -1992,13 +2469,13 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
         <v>20</v>
@@ -2006,28 +2483,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="n">
-        <v>55.0205</v>
-      </c>
-      <c r="E22" t="n">
-        <v>14.9119</v>
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -2036,13 +2513,13 @@
         <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N22" t="s">
         <v>20</v>
@@ -2050,28 +2527,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="n">
-        <v>54.8378</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11.4936</v>
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -2080,13 +2557,13 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N23" t="s">
         <v>20</v>
@@ -2094,28 +2571,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="n">
-        <v>56.607</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.2971</v>
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -2124,13 +2601,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N24" t="s">
         <v>20</v>
@@ -2138,28 +2615,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="n">
-        <v>55.4698</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8.3153</v>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -2168,13 +2645,13 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
         <v>20</v>
@@ -2182,28 +2659,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="n">
-        <v>55.3465</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11.101</v>
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -2212,13 +2689,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
         <v>20</v>
@@ -2226,28 +2703,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="n">
-        <v>54.8803</v>
-      </c>
-      <c r="E27" t="n">
-        <v>11.0176</v>
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -2256,13 +2733,13 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N27" t="s">
         <v>20</v>
@@ -2270,28 +2747,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="n">
-        <v>55.7492</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12.5947</v>
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -2300,13 +2777,13 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
         <v>20</v>
@@ -2314,28 +2791,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="n">
-        <v>55.6853</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12.0709</v>
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -2344,13 +2821,13 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N29" t="s">
         <v>20</v>
@@ -2358,28 +2835,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="n">
-        <v>56.5592</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.615</v>
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -2388,13 +2865,13 @@
         <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N30" t="s">
         <v>20</v>
@@ -2402,28 +2879,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="n">
-        <v>57.3229</v>
-      </c>
-      <c r="E31" t="n">
-        <v>11.1329</v>
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -2432,13 +2909,13 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
         <v>20</v>
@@ -2446,28 +2923,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="n">
-        <v>56.4481</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10.955</v>
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -2476,13 +2953,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s">
         <v>20</v>
@@ -2490,28 +2967,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="n">
-        <v>55.1359</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.1073</v>
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -2520,13 +2997,13 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N33" t="s">
         <v>20</v>
@@ -2534,28 +3011,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="n">
-        <v>57.1264</v>
-      </c>
-      <c r="E34" t="n">
-        <v>8.6151</v>
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
+        <v>155</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -2564,13 +3041,13 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N34" t="s">
         <v>20</v>
@@ -2578,28 +3055,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="n">
-        <v>55.1146</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.5027</v>
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -2608,13 +3085,13 @@
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M35" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N35" t="s">
         <v>20</v>
@@ -2622,28 +3099,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="n">
-        <v>54.8791</v>
-      </c>
-      <c r="E36" t="n">
-        <v>11.0152</v>
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -2652,13 +3129,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
         <v>20</v>
@@ -2666,28 +3143,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="n">
-        <v>54.919</v>
-      </c>
-      <c r="E37" t="n">
-        <v>11.4921</v>
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -2696,13 +3173,13 @@
         <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
         <v>20</v>
@@ -2710,28 +3187,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="n">
-        <v>55.6798</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.0689</v>
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -2740,13 +3217,13 @@
         <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N38" t="s">
         <v>20</v>
@@ -2754,28 +3231,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="n">
-        <v>57.5959</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.9574</v>
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -2784,13 +3261,13 @@
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N39" t="s">
         <v>20</v>
@@ -2798,28 +3275,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="n">
-        <v>55.4824</v>
-      </c>
-      <c r="E40" t="n">
-        <v>9.7151</v>
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>176</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
@@ -2828,13 +3305,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
         <v>20</v>
@@ -2842,28 +3319,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" t="n">
-        <v>56.7062</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9.2016</v>
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -2872,13 +3349,13 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N41" t="s">
         <v>20</v>
@@ -2886,28 +3363,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" t="n">
-        <v>55.7514</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12.5935</v>
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -2916,13 +3393,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N42" t="s">
         <v>20</v>
@@ -2930,28 +3407,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" t="n">
-        <v>54.9551</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.4624</v>
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" t="s">
+        <v>185</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -2960,13 +3437,13 @@
         <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M43" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N43" t="s">
         <v>20</v>
@@ -2974,28 +3451,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" t="n">
-        <v>57.3214</v>
-      </c>
-      <c r="E44" t="n">
-        <v>11.1282</v>
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
@@ -3004,13 +3481,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M44" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N44" t="s">
         <v>20</v>
@@ -3018,28 +3495,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" t="n">
-        <v>55.703</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9.6995</v>
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H45" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
@@ -3048,13 +3525,13 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M45" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N45" t="s">
         <v>20</v>
@@ -3062,28 +3539,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" t="n">
-        <v>57.3387</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10.526</v>
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -3092,13 +3569,13 @@
         <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M46" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N46" t="s">
         <v>20</v>
@@ -3106,28 +3583,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" t="n">
-        <v>55.9672</v>
-      </c>
-      <c r="E47" t="n">
-        <v>11.8442</v>
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s">
+        <v>200</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
@@ -3136,13 +3613,13 @@
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M47" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N47" t="s">
         <v>20</v>
@@ -3150,28 +3627,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" t="n">
-        <v>55.7546</v>
-      </c>
-      <c r="E48" t="n">
-        <v>11.3223</v>
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -3180,13 +3657,13 @@
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M48" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N48" t="s">
         <v>20</v>
@@ -3194,28 +3671,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" t="n">
-        <v>54.9501</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.4757</v>
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" t="s">
+        <v>208</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -3224,13 +3701,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N49" t="s">
         <v>20</v>
@@ -3238,28 +3715,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" t="n">
-        <v>56.8039</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10.2823</v>
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>211</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
@@ -3268,13 +3745,13 @@
         <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M50" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N50" t="s">
         <v>20</v>
@@ -3282,28 +3759,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" t="n">
-        <v>55.9689</v>
-      </c>
-      <c r="E51" t="n">
-        <v>11.8461</v>
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" t="s">
+        <v>214</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
@@ -3312,13 +3789,13 @@
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N51" t="s">
         <v>20</v>
@@ -3326,28 +3803,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" t="n">
-        <v>55.9513</v>
-      </c>
-      <c r="E52" t="n">
-        <v>11.8471</v>
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" t="s">
+        <v>217</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
@@ -3356,13 +3833,13 @@
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
         <v>20</v>
@@ -3370,28 +3847,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" t="n">
-        <v>55.0224</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14.9037</v>
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" t="s">
+        <v>220</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -3400,13 +3877,13 @@
         <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M53" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N53" t="s">
         <v>20</v>
@@ -3414,28 +3891,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" t="n">
-        <v>57.3191</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10.5321</v>
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" t="s">
+        <v>223</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
@@ -3444,13 +3921,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N54" t="s">
         <v>20</v>
@@ -3458,28 +3935,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="n">
-        <v>57.5921</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.9472</v>
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" t="s">
+        <v>226</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
@@ -3488,13 +3965,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N55" t="s">
         <v>20</v>
@@ -3502,28 +3979,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55.0401</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10.2543</v>
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" t="s">
+        <v>229</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
@@ -3532,13 +4009,13 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N56" t="s">
         <v>20</v>
@@ -3546,28 +4023,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" t="n">
-        <v>55.5021</v>
-      </c>
-      <c r="E57" t="n">
-        <v>10.6131</v>
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" t="s">
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s">
         <v>18</v>
@@ -3576,13 +4053,13 @@
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M57" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N57" t="s">
         <v>20</v>
@@ -3590,28 +4067,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" t="n">
-        <v>55.4722</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.7243</v>
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" t="s">
+        <v>236</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
@@ -3620,13 +4097,13 @@
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N58" t="s">
         <v>20</v>
@@ -3634,28 +4111,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" t="n">
-        <v>55.2521</v>
-      </c>
-      <c r="E59" t="n">
-        <v>14.8263</v>
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" t="s">
+        <v>239</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
@@ -3664,13 +4141,13 @@
         <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M59" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N59" t="s">
         <v>20</v>
@@ -3678,28 +4155,28 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" t="n">
-        <v>54.885</v>
-      </c>
-      <c r="E60" t="n">
-        <v>11.0135</v>
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" t="s">
+        <v>242</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -3708,13 +4185,13 @@
         <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N60" t="s">
         <v>20</v>
@@ -3722,28 +4199,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" t="n">
-        <v>56.0445</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12.6091</v>
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" t="s">
+        <v>245</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
@@ -3752,13 +4229,13 @@
         <v>19</v>
       </c>
       <c r="K61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N61" t="s">
         <v>20</v>
@@ -3766,28 +4243,28 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" t="n">
-        <v>57.055</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9.8705</v>
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" t="s">
+        <v>248</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I62" t="s">
         <v>18</v>
@@ -3796,13 +4273,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M62" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N62" t="s">
         <v>20</v>
@@ -3810,28 +4287,28 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" t="n">
-        <v>55.1182</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.4882</v>
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
@@ -3840,13 +4317,13 @@
         <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N63" t="s">
         <v>20</v>
@@ -3854,28 +4331,28 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" t="n">
-        <v>55.759</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11.3175</v>
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" t="s">
+        <v>254</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
@@ -3884,13 +4361,13 @@
         <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N64" t="s">
         <v>20</v>
@@ -3898,28 +4375,28 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" t="n">
-        <v>56.6097</v>
-      </c>
-      <c r="E65" t="n">
-        <v>10.3029</v>
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" t="s">
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="I65" t="s">
         <v>18</v>
@@ -3928,13 +4405,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L65" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M65" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N65" t="s">
         <v>20</v>
@@ -3942,28 +4419,28 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" t="n">
-        <v>56.7105</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9.207</v>
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I66" t="s">
         <v>18</v>
@@ -3972,13 +4449,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L66" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M66" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N66" t="s">
         <v>20</v>
@@ -3986,28 +4463,28 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" t="n">
-        <v>55.759</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.6027</v>
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" t="s">
+        <v>262</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
@@ -4016,13 +4493,13 @@
         <v>19</v>
       </c>
       <c r="K67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M67" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N67" t="s">
         <v>20</v>
@@ -4030,28 +4507,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" t="n">
-        <v>56.1388</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10.2194</v>
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" t="s">
+        <v>265</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s">
         <v>18</v>
@@ -4060,13 +4537,13 @@
         <v>19</v>
       </c>
       <c r="K68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M68" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N68" t="s">
         <v>20</v>
@@ -4074,28 +4551,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" t="n">
-        <v>55.4464</v>
-      </c>
-      <c r="E69" t="n">
-        <v>8.4066</v>
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" t="s">
+        <v>268</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
         <v>18</v>
@@ -4104,13 +4581,13 @@
         <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M69" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N69" t="s">
         <v>20</v>
@@ -4118,28 +4595,28 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" t="n">
-        <v>55.5674</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.2865</v>
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" t="s">
+        <v>271</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s">
         <v>18</v>
@@ -4148,13 +4625,13 @@
         <v>19</v>
       </c>
       <c r="K70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N70" t="s">
         <v>20</v>
@@ -4162,28 +4639,28 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" t="n">
-        <v>55.328</v>
-      </c>
-      <c r="E71" t="n">
-        <v>11.1284</v>
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" t="s">
+        <v>274</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I71" t="s">
         <v>18</v>
@@ -4192,13 +4669,13 @@
         <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M71" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N71" t="s">
         <v>20</v>
@@ -4206,28 +4683,28 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" t="n">
-        <v>56.5539</v>
-      </c>
-      <c r="E72" t="n">
-        <v>8.6101</v>
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" t="s">
+        <v>277</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H72" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s">
         <v>18</v>
@@ -4236,13 +4713,13 @@
         <v>19</v>
       </c>
       <c r="K72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M72" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N72" t="s">
         <v>20</v>
@@ -4250,28 +4727,28 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" t="n">
-        <v>55.1701</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12.0908</v>
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" t="s">
+        <v>280</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I73" t="s">
         <v>18</v>
@@ -4280,13 +4757,13 @@
         <v>19</v>
       </c>
       <c r="K73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L73" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M73" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N73" t="s">
         <v>20</v>
@@ -4294,28 +4771,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" t="n">
-        <v>57.1265</v>
-      </c>
-      <c r="E74" t="n">
-        <v>8.6208</v>
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" t="s">
+        <v>283</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="I74" t="s">
         <v>18</v>
@@ -4324,13 +4801,13 @@
         <v>19</v>
       </c>
       <c r="K74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N74" t="s">
         <v>20</v>
@@ -4338,28 +4815,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" t="n">
-        <v>55.0648</v>
-      </c>
-      <c r="E75" t="n">
-        <v>10.2187</v>
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" t="s">
+        <v>286</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="I75" t="s">
         <v>18</v>
@@ -4368,13 +4845,13 @@
         <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N75" t="s">
         <v>20</v>
@@ -4382,28 +4859,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" t="n">
-        <v>55.4862</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10.5984</v>
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" t="s">
+        <v>289</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s">
         <v>18</v>
@@ -4412,13 +4889,13 @@
         <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M76" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N76" t="s">
         <v>20</v>
@@ -4426,28 +4903,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" t="n">
-        <v>55.7588</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11.3493</v>
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" t="s">
+        <v>292</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="I77" t="s">
         <v>18</v>
@@ -4456,13 +4933,13 @@
         <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N77" t="s">
         <v>20</v>
@@ -4470,28 +4947,28 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" t="n">
-        <v>55.3475</v>
-      </c>
-      <c r="E78" t="n">
-        <v>11.1011</v>
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" t="s">
+        <v>295</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I78" t="s">
         <v>18</v>
@@ -4500,13 +4977,13 @@
         <v>19</v>
       </c>
       <c r="K78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N78" t="s">
         <v>20</v>
@@ -4514,28 +4991,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" t="n">
-        <v>55.7003</v>
-      </c>
-      <c r="E79" t="n">
-        <v>9.7109</v>
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79" t="s">
+        <v>298</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
@@ -4544,13 +5021,13 @@
         <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M79" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N79" t="s">
         <v>20</v>
@@ -4558,28 +5035,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" t="n">
-        <v>55.5693</v>
-      </c>
-      <c r="E80" t="n">
-        <v>12.2888</v>
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" t="s">
+        <v>301</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
@@ -4588,13 +5065,13 @@
         <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N80" t="s">
         <v>20</v>
@@ -4602,28 +5079,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" t="n">
-        <v>55.4941</v>
-      </c>
-      <c r="E81" t="n">
-        <v>10.6182</v>
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" t="s">
+        <v>75</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H81" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I81" t="s">
         <v>18</v>
@@ -4632,13 +5109,13 @@
         <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L81" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M81" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N81" t="s">
         <v>20</v>
@@ -4646,28 +5123,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" t="n">
-        <v>55.4824</v>
-      </c>
-      <c r="E82" t="n">
-        <v>9.7151</v>
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" t="s">
+        <v>176</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
@@ -4676,13 +5153,13 @@
         <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N82" t="s">
         <v>20</v>
@@ -4690,28 +5167,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" t="n">
-        <v>55.0401</v>
-      </c>
-      <c r="E83" t="n">
-        <v>10.2543</v>
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" t="s">
+        <v>229</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="I83" t="s">
         <v>18</v>
@@ -4720,13 +5197,13 @@
         <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M83" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N83" t="s">
         <v>20</v>
@@ -4734,28 +5211,28 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" t="s">
         <v>152</v>
       </c>
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>149</v>
-      </c>
-      <c r="D84" t="n">
-        <v>55.1359</v>
-      </c>
-      <c r="E84" t="n">
-        <v>12.1073</v>
-      </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
@@ -4764,13 +5241,13 @@
         <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M84" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N84" t="s">
         <v>20</v>
@@ -4778,28 +5255,28 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" t="n">
-        <v>55.1701</v>
-      </c>
-      <c r="E85" t="n">
-        <v>12.0908</v>
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" t="s">
+        <v>280</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I85" t="s">
         <v>18</v>
@@ -4808,13 +5285,13 @@
         <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M85" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N85" t="s">
         <v>20</v>
@@ -4822,28 +5299,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
-      </c>
-      <c r="D86" t="n">
-        <v>55.4898</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9.728</v>
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" t="s">
+        <v>95</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I86" t="s">
         <v>18</v>
@@ -4852,13 +5329,13 @@
         <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M86" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N86" t="s">
         <v>20</v>
@@ -4866,28 +5343,28 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
-      </c>
-      <c r="D87" t="n">
-        <v>57.5921</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9.9472</v>
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" t="s">
+        <v>226</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="I87" t="s">
         <v>18</v>
@@ -4896,13 +5373,13 @@
         <v>19</v>
       </c>
       <c r="K87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N87" t="s">
         <v>20</v>
@@ -4910,28 +5387,28 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
-      </c>
-      <c r="D88" t="n">
-        <v>54.8803</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11.0176</v>
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>131</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I88" t="s">
         <v>18</v>
@@ -4940,13 +5417,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M88" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N88" t="s">
         <v>20</v>
@@ -4954,28 +5431,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>310</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" t="n">
-        <v>57.1398</v>
-      </c>
-      <c r="E89" t="n">
-        <v>10.4295</v>
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>311</v>
+      </c>
+      <c r="E89" t="s">
+        <v>312</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="I89" t="s">
         <v>18</v>
@@ -4984,13 +5461,13 @@
         <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N89" t="s">
         <v>20</v>
@@ -4998,28 +5475,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
-      </c>
-      <c r="D90" t="n">
-        <v>54.9501</v>
-      </c>
-      <c r="E90" t="n">
-        <v>12.4757</v>
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" t="s">
+        <v>208</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="I90" t="s">
         <v>18</v>
@@ -5028,13 +5505,13 @@
         <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N90" t="s">
         <v>20</v>
@@ -5042,28 +5519,28 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
-      </c>
-      <c r="D91" t="n">
-        <v>56.8039</v>
-      </c>
-      <c r="E91" t="n">
-        <v>10.2823</v>
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" t="s">
+        <v>211</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I91" t="s">
         <v>18</v>
@@ -5072,13 +5549,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M91" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N91" t="s">
         <v>20</v>
@@ -5086,28 +5563,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" t="n">
-        <v>55.5021</v>
-      </c>
-      <c r="E92" t="n">
-        <v>10.6131</v>
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>232</v>
+      </c>
+      <c r="E92" t="s">
+        <v>233</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H92" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
@@ -5116,13 +5593,13 @@
         <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L92" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M92" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N92" t="s">
         <v>20</v>
@@ -5130,28 +5607,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" t="n">
-        <v>55.4698</v>
-      </c>
-      <c r="E93" t="n">
-        <v>8.3153</v>
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" t="s">
+        <v>123</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
         <v>18</v>
@@ -5160,13 +5637,13 @@
         <v>19</v>
       </c>
       <c r="K93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N93" t="s">
         <v>20</v>
@@ -5174,28 +5651,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" t="n">
-        <v>56.1388</v>
-      </c>
-      <c r="E94" t="n">
-        <v>10.2194</v>
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" t="s">
+        <v>265</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I94" t="s">
         <v>18</v>
@@ -5204,13 +5681,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M94" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N94" t="s">
         <v>20</v>
@@ -5218,28 +5695,28 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" t="n">
-        <v>56.7971</v>
-      </c>
-      <c r="E95" t="n">
-        <v>10.286</v>
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" t="s">
+        <v>105</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I95" t="s">
         <v>18</v>
@@ -5248,13 +5725,13 @@
         <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N95" t="s">
         <v>20</v>
@@ -5262,28 +5739,28 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" t="n">
-        <v>55.7514</v>
-      </c>
-      <c r="E96" t="n">
-        <v>12.5935</v>
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" t="s">
+        <v>182</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="I96" t="s">
         <v>18</v>
@@ -5292,13 +5769,13 @@
         <v>19</v>
       </c>
       <c r="K96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N96" t="s">
         <v>20</v>
@@ -5306,28 +5783,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" t="n">
-        <v>55.5674</v>
-      </c>
-      <c r="E97" t="n">
-        <v>12.2865</v>
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>270</v>
+      </c>
+      <c r="E97" t="s">
+        <v>271</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I97" t="s">
         <v>18</v>
@@ -5336,13 +5813,13 @@
         <v>19</v>
       </c>
       <c r="K97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M97" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N97" t="s">
         <v>20</v>
@@ -5350,28 +5827,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
-      </c>
-      <c r="D98" t="n">
-        <v>55.4722</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9.7243</v>
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>235</v>
+      </c>
+      <c r="E98" t="s">
+        <v>236</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H98" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I98" t="s">
         <v>18</v>
@@ -5380,13 +5857,13 @@
         <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N98" t="s">
         <v>20</v>
@@ -5394,28 +5871,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
-      </c>
-      <c r="D99" t="n">
-        <v>55.4862</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10.5984</v>
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E99" t="s">
+        <v>289</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I99" t="s">
         <v>18</v>
@@ -5424,13 +5901,13 @@
         <v>19</v>
       </c>
       <c r="K99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M99" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N99" t="s">
         <v>20</v>
@@ -5438,28 +5915,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" t="n">
-        <v>56.7062</v>
-      </c>
-      <c r="E100" t="n">
-        <v>9.2016</v>
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" t="s">
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I100" t="s">
         <v>18</v>
@@ -5468,13 +5945,13 @@
         <v>19</v>
       </c>
       <c r="K100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M100" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N100" t="s">
         <v>20</v>
@@ -5482,28 +5959,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" t="n">
-        <v>54.9551</v>
-      </c>
-      <c r="E101" t="n">
-        <v>12.4624</v>
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" t="s">
+        <v>185</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="I101" t="s">
         <v>18</v>
@@ -5512,13 +5989,13 @@
         <v>19</v>
       </c>
       <c r="K101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M101" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N101" t="s">
         <v>20</v>
@@ -5526,28 +6003,28 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102" t="n">
-        <v>55.9967</v>
-      </c>
-      <c r="E102" t="n">
-        <v>8.1173</v>
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>45</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
         <v>18</v>
@@ -5556,13 +6033,13 @@
         <v>19</v>
       </c>
       <c r="K102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M102" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N102" t="s">
         <v>20</v>
@@ -5570,28 +6047,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
-      </c>
-      <c r="D103" t="n">
-        <v>56.0422</v>
-      </c>
-      <c r="E103" t="n">
-        <v>12.6193</v>
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I103" t="s">
         <v>18</v>
@@ -5600,13 +6077,13 @@
         <v>19</v>
       </c>
       <c r="K103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N103" t="s">
         <v>20</v>
@@ -5614,28 +6091,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D104" t="n">
-        <v>55.7003</v>
-      </c>
-      <c r="E104" t="n">
-        <v>9.7109</v>
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" t="s">
+        <v>298</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H104" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="I104" t="s">
         <v>18</v>
@@ -5644,13 +6121,13 @@
         <v>19</v>
       </c>
       <c r="K104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L104" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N104" t="s">
         <v>20</v>
@@ -5658,28 +6135,28 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
-      </c>
-      <c r="D105" t="n">
-        <v>55.6853</v>
-      </c>
-      <c r="E105" t="n">
-        <v>12.0709</v>
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" t="s">
+        <v>139</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H105" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I105" t="s">
         <v>18</v>
@@ -5688,13 +6165,13 @@
         <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L105" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M105" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N105" t="s">
         <v>20</v>
@@ -5702,28 +6179,28 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" t="n">
-        <v>55.5693</v>
-      </c>
-      <c r="E106" t="n">
-        <v>12.2888</v>
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>300</v>
+      </c>
+      <c r="E106" t="s">
+        <v>301</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H106" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I106" t="s">
         <v>18</v>
@@ -5732,13 +6209,13 @@
         <v>19</v>
       </c>
       <c r="K106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N106" t="s">
         <v>20</v>
@@ -5746,28 +6223,28 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D107" t="n">
-        <v>55.2521</v>
-      </c>
-      <c r="E107" t="n">
-        <v>14.8263</v>
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" t="s">
+        <v>239</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I107" t="s">
         <v>18</v>
@@ -5776,13 +6253,13 @@
         <v>19</v>
       </c>
       <c r="K107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M107" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N107" t="s">
         <v>20</v>
@@ -5790,28 +6267,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D108" t="n">
-        <v>55.5648</v>
-      </c>
-      <c r="E108" t="n">
-        <v>12.2823</v>
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" t="s">
+        <v>51</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I108" t="s">
         <v>18</v>
@@ -5820,13 +6297,13 @@
         <v>19</v>
       </c>
       <c r="K108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M108" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N108" t="s">
         <v>20</v>
@@ -5834,28 +6311,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
-      </c>
-      <c r="D109" t="n">
-        <v>55.2571</v>
-      </c>
-      <c r="E109" t="n">
-        <v>14.8194</v>
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" t="s">
+        <v>87</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H109" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I109" t="s">
         <v>18</v>
@@ -5864,13 +6341,13 @@
         <v>19</v>
       </c>
       <c r="K109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N109" t="s">
         <v>20</v>
@@ -5878,28 +6355,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
-      </c>
-      <c r="D110" t="n">
-        <v>57.0103</v>
-      </c>
-      <c r="E110" t="n">
-        <v>9.6347</v>
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" t="s">
+        <v>102</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H110" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I110" t="s">
         <v>18</v>
@@ -5908,13 +6385,13 @@
         <v>19</v>
       </c>
       <c r="K110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L110" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M110" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N110" t="s">
         <v>20</v>
@@ -5922,28 +6399,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
-      </c>
-      <c r="D111" t="n">
-        <v>55.9672</v>
-      </c>
-      <c r="E111" t="n">
-        <v>11.8442</v>
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" t="s">
+        <v>200</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I111" t="s">
         <v>18</v>
@@ -5952,13 +6429,13 @@
         <v>19</v>
       </c>
       <c r="K111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M111" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N111" t="s">
         <v>20</v>
@@ -5966,28 +6443,28 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>149</v>
-      </c>
-      <c r="D112" t="n">
-        <v>57.1439</v>
-      </c>
-      <c r="E112" t="n">
-        <v>10.4287</v>
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>336</v>
+      </c>
+      <c r="E112" t="s">
+        <v>337</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="I112" t="s">
         <v>18</v>
@@ -5996,13 +6473,13 @@
         <v>19</v>
       </c>
       <c r="K112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M112" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N112" t="s">
         <v>20</v>
@@ -6010,28 +6487,28 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>149</v>
-      </c>
-      <c r="D113" t="n">
-        <v>55.6835</v>
-      </c>
-      <c r="E113" t="n">
-        <v>12.0731</v>
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" t="s">
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H113" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I113" t="s">
         <v>18</v>
@@ -6040,13 +6517,13 @@
         <v>19</v>
       </c>
       <c r="K113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L113" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M113" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N113" t="s">
         <v>20</v>
@@ -6054,28 +6531,28 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>149</v>
-      </c>
-      <c r="D114" t="n">
-        <v>56.607</v>
-      </c>
-      <c r="E114" t="n">
-        <v>10.2971</v>
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" t="s">
+        <v>119</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H114" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="I114" t="s">
         <v>18</v>
@@ -6084,13 +6561,13 @@
         <v>19</v>
       </c>
       <c r="K114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L114" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M114" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N114" t="s">
         <v>20</v>
@@ -6098,28 +6575,28 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>340</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
-      </c>
-      <c r="D115" t="n">
-        <v>57.3214</v>
-      </c>
-      <c r="E115" t="n">
-        <v>11.1282</v>
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115" t="s">
+        <v>189</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="I115" t="s">
         <v>18</v>
@@ -6128,13 +6605,13 @@
         <v>19</v>
       </c>
       <c r="K115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M115" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N115" t="s">
         <v>20</v>
@@ -6142,28 +6619,28 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
-      </c>
-      <c r="D116" t="n">
-        <v>54.8474</v>
-      </c>
-      <c r="E116" t="n">
-        <v>11.4796</v>
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I116" t="s">
         <v>18</v>
@@ -6172,13 +6649,13 @@
         <v>19</v>
       </c>
       <c r="K116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N116" t="s">
         <v>20</v>
@@ -6186,28 +6663,28 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>149</v>
-      </c>
-      <c r="D117" t="n">
-        <v>56.1228</v>
-      </c>
-      <c r="E117" t="n">
-        <v>10.2234</v>
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" t="s">
+        <v>79</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I117" t="s">
         <v>18</v>
@@ -6216,13 +6693,13 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N117" t="s">
         <v>20</v>
@@ -6230,28 +6707,28 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
-      </c>
-      <c r="D118" t="n">
-        <v>55.703</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9.6995</v>
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>191</v>
+      </c>
+      <c r="E118" t="s">
+        <v>192</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H118" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="I118" t="s">
         <v>18</v>
@@ -6260,13 +6737,13 @@
         <v>19</v>
       </c>
       <c r="K118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L118" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M118" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N118" t="s">
         <v>20</v>
@@ -6274,28 +6751,28 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
-      </c>
-      <c r="D119" t="n">
-        <v>57.055</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9.8705</v>
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" t="s">
+        <v>248</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H119" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I119" t="s">
         <v>18</v>
@@ -6304,13 +6781,13 @@
         <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L119" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M119" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N119" t="s">
         <v>20</v>
@@ -6318,28 +6795,28 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>149</v>
-      </c>
-      <c r="D120" t="n">
-        <v>54.919</v>
-      </c>
-      <c r="E120" t="n">
-        <v>11.4921</v>
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>165</v>
+      </c>
+      <c r="E120" t="s">
+        <v>166</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I120" t="s">
         <v>18</v>
@@ -6348,13 +6825,13 @@
         <v>19</v>
       </c>
       <c r="K120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L120" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M120" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N120" t="s">
         <v>20</v>
@@ -6362,28 +6839,28 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
-      </c>
-      <c r="D121" t="n">
-        <v>56.4455</v>
-      </c>
-      <c r="E121" t="n">
-        <v>10.9598</v>
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" t="s">
+        <v>55</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I121" t="s">
         <v>18</v>
@@ -6392,13 +6869,13 @@
         <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M121" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N121" t="s">
         <v>20</v>
@@ -6406,28 +6883,28 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
-      </c>
-      <c r="D122" t="n">
-        <v>55.759</v>
-      </c>
-      <c r="E122" t="n">
-        <v>11.3175</v>
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" t="s">
+        <v>254</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H122" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="I122" t="s">
         <v>18</v>
@@ -6436,13 +6913,13 @@
         <v>19</v>
       </c>
       <c r="K122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L122" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N122" t="s">
         <v>20</v>
@@ -6450,28 +6927,28 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>149</v>
-      </c>
-      <c r="D123" t="n">
-        <v>57.0595</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9.8713</v>
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" t="s">
+        <v>63</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H123" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I123" t="s">
         <v>18</v>
@@ -6480,13 +6957,13 @@
         <v>19</v>
       </c>
       <c r="K123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M123" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N123" t="s">
         <v>20</v>
@@ -6494,28 +6971,28 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>149</v>
-      </c>
-      <c r="D124" t="n">
-        <v>55.9898</v>
-      </c>
-      <c r="E124" t="n">
-        <v>8.1205</v>
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" t="s">
+        <v>109</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
       </c>
       <c r="G124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H124" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I124" t="s">
         <v>18</v>
@@ -6524,13 +7001,13 @@
         <v>19</v>
       </c>
       <c r="K124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L124" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N124" t="s">
         <v>20</v>
@@ -6538,28 +7015,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
-      </c>
-      <c r="D125" t="n">
-        <v>56.6097</v>
-      </c>
-      <c r="E125" t="n">
-        <v>10.3029</v>
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" t="s">
+        <v>257</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H125" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="I125" t="s">
         <v>18</v>
@@ -6568,13 +7045,13 @@
         <v>19</v>
       </c>
       <c r="K125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L125" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M125" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N125" t="s">
         <v>20</v>
@@ -6582,28 +7059,28 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>351</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
-      </c>
-      <c r="D126" t="n">
-        <v>56.5539</v>
-      </c>
-      <c r="E126" t="n">
-        <v>8.6101</v>
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>276</v>
+      </c>
+      <c r="E126" t="s">
+        <v>277</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H126" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I126" t="s">
         <v>18</v>
@@ -6612,13 +7089,13 @@
         <v>19</v>
       </c>
       <c r="K126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L126" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M126" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N126" t="s">
         <v>20</v>
@@ -6626,28 +7103,28 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
-      </c>
-      <c r="D127" t="n">
-        <v>56.5503</v>
-      </c>
-      <c r="E127" t="n">
-        <v>8.6145</v>
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>90</v>
+      </c>
+      <c r="E127" t="s">
+        <v>91</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H127" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I127" t="s">
         <v>18</v>
@@ -6656,13 +7133,13 @@
         <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L127" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M127" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N127" t="s">
         <v>20</v>
@@ -6670,28 +7147,28 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
-      </c>
-      <c r="D128" t="n">
-        <v>55.0648</v>
-      </c>
-      <c r="E128" t="n">
-        <v>10.2187</v>
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>285</v>
+      </c>
+      <c r="E128" t="s">
+        <v>286</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H128" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="I128" t="s">
         <v>18</v>
@@ -6700,13 +7177,13 @@
         <v>19</v>
       </c>
       <c r="K128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L128" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N128" t="s">
         <v>20</v>
@@ -6714,28 +7191,28 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="B129" t="s">
         <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
-      </c>
-      <c r="D129" t="n">
-        <v>55.6798</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.0689</v>
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" t="s">
+        <v>169</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H129" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I129" t="s">
         <v>18</v>
@@ -6744,13 +7221,13 @@
         <v>19</v>
       </c>
       <c r="K129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L129" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M129" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N129" t="s">
         <v>20</v>
@@ -6758,28 +7235,28 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>355</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>149</v>
-      </c>
-      <c r="D130" t="n">
-        <v>55.9689</v>
-      </c>
-      <c r="E130" t="n">
-        <v>11.8461</v>
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" t="s">
+        <v>214</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H130" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I130" t="s">
         <v>18</v>
@@ -6788,13 +7265,13 @@
         <v>19</v>
       </c>
       <c r="K130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N130" t="s">
         <v>20</v>
@@ -6802,28 +7279,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>149</v>
-      </c>
-      <c r="D131" t="n">
-        <v>55.3475</v>
-      </c>
-      <c r="E131" t="n">
-        <v>11.1011</v>
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>294</v>
+      </c>
+      <c r="E131" t="s">
+        <v>295</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H131" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I131" t="s">
         <v>18</v>
@@ -6832,13 +7309,13 @@
         <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L131" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N131" t="s">
         <v>20</v>
@@ -6846,28 +7323,28 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>357</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
-      </c>
-      <c r="D132" t="n">
-        <v>55.3465</v>
-      </c>
-      <c r="E132" t="n">
-        <v>11.101</v>
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>126</v>
+      </c>
+      <c r="E132" t="s">
+        <v>127</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -6876,13 +7353,13 @@
         <v>19</v>
       </c>
       <c r="K132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L132" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N132" t="s">
         <v>20</v>
@@ -6890,28 +7367,28 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>149</v>
-      </c>
-      <c r="D133" t="n">
-        <v>55.7588</v>
-      </c>
-      <c r="E133" t="n">
-        <v>11.3493</v>
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" t="s">
+        <v>292</v>
       </c>
       <c r="F133" t="s">
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H133" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -6920,13 +7397,13 @@
         <v>19</v>
       </c>
       <c r="K133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N133" t="s">
         <v>20</v>
@@ -6934,28 +7411,28 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
-      </c>
-      <c r="D134" t="n">
-        <v>54.885</v>
-      </c>
-      <c r="E134" t="n">
-        <v>11.0135</v>
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>241</v>
+      </c>
+      <c r="E134" t="s">
+        <v>242</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I134" t="s">
         <v>18</v>
@@ -6964,13 +7441,13 @@
         <v>19</v>
       </c>
       <c r="K134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L134" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N134" t="s">
         <v>20</v>
@@ -6978,28 +7455,28 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>360</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
-      </c>
-      <c r="D135" t="n">
-        <v>55.328</v>
-      </c>
-      <c r="E135" t="n">
-        <v>11.1284</v>
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>273</v>
+      </c>
+      <c r="E135" t="s">
+        <v>274</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H135" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I135" t="s">
         <v>18</v>
@@ -7008,13 +7485,13 @@
         <v>19</v>
       </c>
       <c r="K135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L135" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M135" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N135" t="s">
         <v>20</v>
@@ -7022,28 +7499,28 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>361</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>203</v>
+      </c>
+      <c r="E136" t="s">
         <v>204</v>
       </c>
-      <c r="B136" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" t="s">
-        <v>149</v>
-      </c>
-      <c r="D136" t="n">
-        <v>55.7546</v>
-      </c>
-      <c r="E136" t="n">
-        <v>11.3223</v>
-      </c>
       <c r="F136" t="s">
         <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H136" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="I136" t="s">
         <v>18</v>
@@ -7052,13 +7529,13 @@
         <v>19</v>
       </c>
       <c r="K136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L136" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M136" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N136" t="s">
         <v>20</v>
@@ -7066,28 +7543,28 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
-      </c>
-      <c r="D137" t="n">
-        <v>55.9513</v>
-      </c>
-      <c r="E137" t="n">
-        <v>11.8471</v>
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>216</v>
+      </c>
+      <c r="E137" t="s">
+        <v>217</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I137" t="s">
         <v>18</v>
@@ -7096,13 +7573,13 @@
         <v>19</v>
       </c>
       <c r="K137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L137" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N137" t="s">
         <v>20</v>
@@ -7110,28 +7587,28 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="B138" t="s">
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
-      </c>
-      <c r="D138" t="n">
-        <v>55.1182</v>
-      </c>
-      <c r="E138" t="n">
-        <v>9.4882</v>
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>250</v>
+      </c>
+      <c r="E138" t="s">
+        <v>251</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H138" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I138" t="s">
         <v>18</v>
@@ -7140,13 +7617,13 @@
         <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L138" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N138" t="s">
         <v>20</v>
@@ -7154,28 +7631,28 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>364</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
       <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>148</v>
+      </c>
+      <c r="E139" t="s">
         <v>149</v>
       </c>
-      <c r="D139" t="n">
-        <v>56.4481</v>
-      </c>
-      <c r="E139" t="n">
-        <v>10.955</v>
-      </c>
       <c r="F139" t="s">
         <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H139" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I139" t="s">
         <v>18</v>
@@ -7184,13 +7661,13 @@
         <v>19</v>
       </c>
       <c r="K139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L139" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N139" t="s">
         <v>20</v>
@@ -7198,28 +7675,28 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>149</v>
-      </c>
-      <c r="D140" t="n">
-        <v>55.7492</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.5947</v>
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>134</v>
+      </c>
+      <c r="E140" t="s">
+        <v>135</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H140" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="I140" t="s">
         <v>18</v>
@@ -7228,13 +7705,13 @@
         <v>19</v>
       </c>
       <c r="K140" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L140" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N140" t="s">
         <v>20</v>
@@ -7242,28 +7719,28 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
-      </c>
-      <c r="D141" t="n">
-        <v>55.1146</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9.5027</v>
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" t="s">
+        <v>159</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H141" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I141" t="s">
         <v>18</v>
@@ -7272,13 +7749,13 @@
         <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M141" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N141" t="s">
         <v>20</v>
@@ -7286,28 +7763,28 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="B142" t="s">
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>149</v>
-      </c>
-      <c r="D142" t="n">
-        <v>54.8791</v>
-      </c>
-      <c r="E142" t="n">
-        <v>11.0152</v>
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" t="s">
+        <v>163</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I142" t="s">
         <v>18</v>
@@ -7316,13 +7793,13 @@
         <v>19</v>
       </c>
       <c r="K142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L142" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N142" t="s">
         <v>20</v>
@@ -7330,28 +7807,28 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="B143" t="s">
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
-      </c>
-      <c r="D143" t="n">
-        <v>56.0411</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.6181</v>
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" t="s">
+        <v>99</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I143" t="s">
         <v>18</v>
@@ -7360,13 +7837,13 @@
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L143" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M143" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N143" t="s">
         <v>20</v>
@@ -7374,28 +7851,28 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>369</v>
       </c>
       <c r="B144" t="s">
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>149</v>
-      </c>
-      <c r="D144" t="n">
-        <v>56.7128</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9.2091</v>
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" t="s">
+        <v>59</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H144" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I144" t="s">
         <v>18</v>
@@ -7404,13 +7881,13 @@
         <v>19</v>
       </c>
       <c r="K144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L144" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N144" t="s">
         <v>20</v>
@@ -7418,28 +7895,28 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>370</v>
       </c>
       <c r="B145" t="s">
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" t="n">
-        <v>56.0445</v>
-      </c>
-      <c r="E145" t="n">
-        <v>12.6091</v>
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>244</v>
+      </c>
+      <c r="E145" t="s">
+        <v>245</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
       </c>
       <c r="G145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I145" t="s">
         <v>18</v>
@@ -7448,13 +7925,13 @@
         <v>19</v>
       </c>
       <c r="K145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L145" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N145" t="s">
         <v>20</v>
@@ -7462,28 +7939,28 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>371</v>
       </c>
       <c r="B146" t="s">
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
-      </c>
-      <c r="D146" t="n">
-        <v>56.7105</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9.207</v>
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>259</v>
+      </c>
+      <c r="E146" t="s">
+        <v>260</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H146" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I146" t="s">
         <v>18</v>
@@ -7492,13 +7969,13 @@
         <v>19</v>
       </c>
       <c r="K146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L146" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M146" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N146" t="s">
         <v>20</v>
@@ -7506,28 +7983,28 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
-      </c>
-      <c r="D147" t="n">
-        <v>55.0224</v>
-      </c>
-      <c r="E147" t="n">
-        <v>14.9037</v>
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" t="s">
+        <v>220</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H147" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I147" t="s">
         <v>18</v>
@@ -7536,13 +8013,13 @@
         <v>19</v>
       </c>
       <c r="K147" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L147" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M147" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N147" t="s">
         <v>20</v>
@@ -7550,28 +8027,28 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>373</v>
       </c>
       <c r="B148" t="s">
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
-      </c>
-      <c r="D148" t="n">
-        <v>57.3229</v>
-      </c>
-      <c r="E148" t="n">
-        <v>11.1329</v>
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>144</v>
+      </c>
+      <c r="E148" t="s">
+        <v>145</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H148" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="I148" t="s">
         <v>18</v>
@@ -7580,13 +8057,13 @@
         <v>19</v>
       </c>
       <c r="K148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L148" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N148" t="s">
         <v>20</v>
@@ -7594,28 +8071,28 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
-      </c>
-      <c r="D149" t="n">
-        <v>55.0416</v>
-      </c>
-      <c r="E149" t="n">
-        <v>10.2548</v>
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>375</v>
+      </c>
+      <c r="E149" t="s">
+        <v>376</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H149" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="I149" t="s">
         <v>18</v>
@@ -7624,13 +8101,13 @@
         <v>19</v>
       </c>
       <c r="K149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M149" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N149" t="s">
         <v>20</v>
@@ -7638,28 +8115,28 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" t="n">
-        <v>57.1265</v>
-      </c>
-      <c r="E150" t="n">
-        <v>8.6208</v>
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>282</v>
+      </c>
+      <c r="E150" t="s">
+        <v>283</v>
       </c>
       <c r="F150" t="s">
         <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="I150" t="s">
         <v>18</v>
@@ -7668,13 +8145,13 @@
         <v>19</v>
       </c>
       <c r="K150" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L150" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M150" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N150" t="s">
         <v>20</v>
@@ -7682,28 +8159,28 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
-      </c>
-      <c r="D151" t="n">
-        <v>55.133</v>
-      </c>
-      <c r="E151" t="n">
-        <v>12.0876</v>
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>82</v>
+      </c>
+      <c r="E151" t="s">
+        <v>83</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H151" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I151" t="s">
         <v>18</v>
@@ -7712,13 +8189,13 @@
         <v>19</v>
       </c>
       <c r="K151" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L151" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M151" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N151" t="s">
         <v>20</v>
@@ -7726,28 +8203,28 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>149</v>
-      </c>
-      <c r="D152" t="n">
-        <v>54.8378</v>
-      </c>
-      <c r="E152" t="n">
-        <v>11.4936</v>
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>115</v>
+      </c>
+      <c r="E152" t="s">
+        <v>116</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I152" t="s">
         <v>18</v>
@@ -7756,13 +8233,13 @@
         <v>19</v>
       </c>
       <c r="K152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L152" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M152" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N152" t="s">
         <v>20</v>
@@ -7770,28 +8247,28 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="B153" t="s">
         <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>149</v>
-      </c>
-      <c r="D153" t="n">
-        <v>55.0205</v>
-      </c>
-      <c r="E153" t="n">
-        <v>14.9119</v>
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>111</v>
+      </c>
+      <c r="E153" t="s">
+        <v>112</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H153" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I153" t="s">
         <v>18</v>
@@ -7800,13 +8277,13 @@
         <v>19</v>
       </c>
       <c r="K153" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L153" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N153" t="s">
         <v>20</v>
@@ -7814,28 +8291,28 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>149</v>
-      </c>
-      <c r="D154" t="n">
-        <v>55.759</v>
-      </c>
-      <c r="E154" t="n">
-        <v>12.6027</v>
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>253</v>
+      </c>
+      <c r="E154" t="s">
+        <v>262</v>
       </c>
       <c r="F154" t="s">
         <v>17</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H154" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="I154" t="s">
         <v>18</v>
@@ -7844,13 +8321,13 @@
         <v>19</v>
       </c>
       <c r="K154" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M154" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N154" t="s">
         <v>20</v>
@@ -7858,28 +8335,28 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="B155" t="s">
         <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>149</v>
-      </c>
-      <c r="D155" t="n">
-        <v>57.1264</v>
-      </c>
-      <c r="E155" t="n">
-        <v>8.6151</v>
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>154</v>
+      </c>
+      <c r="E155" t="s">
+        <v>155</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
       </c>
       <c r="G155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H155" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="I155" t="s">
         <v>18</v>
@@ -7888,13 +8365,13 @@
         <v>19</v>
       </c>
       <c r="K155" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N155" t="s">
         <v>20</v>
@@ -7902,28 +8379,28 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>383</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>149</v>
-      </c>
-      <c r="D156" t="n">
-        <v>55.4464</v>
-      </c>
-      <c r="E156" t="n">
-        <v>8.4066</v>
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>267</v>
+      </c>
+      <c r="E156" t="s">
+        <v>268</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H156" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I156" t="s">
         <v>18</v>
@@ -7932,13 +8409,13 @@
         <v>19</v>
       </c>
       <c r="K156" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L156" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M156" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N156" t="s">
         <v>20</v>
@@ -7946,28 +8423,28 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>384</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>149</v>
-      </c>
-      <c r="D157" t="n">
-        <v>57.3387</v>
-      </c>
-      <c r="E157" t="n">
-        <v>10.526</v>
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>195</v>
+      </c>
+      <c r="E157" t="s">
+        <v>196</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H157" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="I157" t="s">
         <v>18</v>
@@ -7976,13 +8453,13 @@
         <v>19</v>
       </c>
       <c r="K157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M157" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N157" t="s">
         <v>20</v>
@@ -8004,10 +8481,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
@@ -8015,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
@@ -8023,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
@@ -8031,7 +8508,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
@@ -8039,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
@@ -8047,7 +8524,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7">
@@ -8055,7 +8532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8">
@@ -8063,7 +8540,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9">
@@ -8071,7 +8548,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10">
@@ -8079,7 +8556,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11">
@@ -8087,7 +8564,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">
@@ -8095,7 +8572,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13">
@@ -8103,7 +8580,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14">
@@ -8111,7 +8588,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15">
@@ -8119,7 +8596,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P11_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_2/table_to_fill.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">14/12/2021 10:55</t>
+    <t xml:space="preserve">2021-12-14</t>
   </si>
   <si>
     <t xml:space="preserve">coast</t>

--- a/analysis/mails_01/P11_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_2/table_to_fill.xlsx
@@ -2133,22 +2133,32 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>
@@ -2156,46 +2166,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
@@ -2203,46 +2199,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -2250,7 +2222,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -2259,19 +2231,19 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -2283,13 +2255,13 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
         <v>22</v>
@@ -2297,7 +2269,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -2306,19 +2278,19 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -2333,10 +2305,10 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
@@ -2344,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2353,19 +2325,19 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -2377,13 +2349,13 @@
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O8" t="s">
         <v>22</v>
@@ -2391,7 +2363,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -2400,10 +2372,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -2412,7 +2384,7 @@
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -2430,7 +2402,7 @@
         <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
         <v>22</v>
@@ -2438,7 +2410,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -2447,19 +2419,19 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -2471,13 +2443,13 @@
         <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
         <v>22</v>
@@ -2485,7 +2457,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2494,19 +2466,19 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -2518,13 +2490,13 @@
         <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
         <v>22</v>
@@ -2532,7 +2504,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -2541,19 +2513,19 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -2568,10 +2540,10 @@
         <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
         <v>22</v>
@@ -2579,7 +2551,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2588,19 +2560,19 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -2615,10 +2587,10 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
         <v>22</v>
@@ -2626,7 +2598,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -2635,19 +2607,19 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
@@ -2659,13 +2631,13 @@
         <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
         <v>22</v>
@@ -2673,7 +2645,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2682,19 +2654,19 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
@@ -2709,10 +2681,10 @@
         <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
         <v>22</v>
@@ -2720,7 +2692,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2729,10 +2701,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -2741,7 +2713,7 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
@@ -2759,7 +2731,7 @@
         <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
         <v>22</v>
@@ -2767,7 +2739,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -2776,19 +2748,19 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
@@ -2803,10 +2775,10 @@
         <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O17" t="s">
         <v>22</v>
@@ -2814,7 +2786,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -2823,19 +2795,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -2850,10 +2822,10 @@
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N18" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O18" t="s">
         <v>22</v>
@@ -2861,7 +2833,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -2870,19 +2842,19 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -2894,13 +2866,13 @@
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O19" t="s">
         <v>22</v>
@@ -2908,7 +2880,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -2917,19 +2889,19 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -2941,13 +2913,13 @@
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O20" t="s">
         <v>22</v>
@@ -2955,7 +2927,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -2964,19 +2936,19 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -2991,10 +2963,10 @@
         <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
         <v>22</v>
@@ -3002,7 +2974,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -3011,19 +2983,19 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -3035,13 +3007,13 @@
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
         <v>22</v>
@@ -3049,7 +3021,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -3058,10 +3030,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -3070,7 +3042,7 @@
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
@@ -3088,7 +3060,7 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
         <v>22</v>
@@ -3096,7 +3068,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -3105,19 +3077,19 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -3132,10 +3104,10 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O24" t="s">
         <v>22</v>
@@ -3143,7 +3115,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -3152,19 +3124,19 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -3176,13 +3148,13 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N25" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O25" t="s">
         <v>22</v>
@@ -3190,7 +3162,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -3199,19 +3171,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
@@ -3226,10 +3198,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O26" t="s">
         <v>22</v>
@@ -3237,7 +3209,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -3246,19 +3218,19 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -3270,13 +3242,13 @@
         <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O27" t="s">
         <v>22</v>
@@ -3284,7 +3256,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -3293,19 +3265,19 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
@@ -3320,10 +3292,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="O28" t="s">
         <v>22</v>
@@ -3331,7 +3303,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -3340,10 +3312,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -3352,7 +3324,7 @@
         <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -3370,7 +3342,7 @@
         <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="O29" t="s">
         <v>22</v>
@@ -3378,7 +3350,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -3387,19 +3359,19 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -3411,13 +3383,13 @@
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N30" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O30" t="s">
         <v>22</v>
@@ -3425,7 +3397,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -3434,19 +3406,19 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
@@ -3458,13 +3430,13 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N31" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O31" t="s">
         <v>22</v>
@@ -3472,7 +3444,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -3481,19 +3453,19 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -3505,13 +3477,13 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N32" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="O32" t="s">
         <v>22</v>
@@ -3519,7 +3491,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -3528,19 +3500,19 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
@@ -3552,13 +3524,13 @@
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M33" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O33" t="s">
         <v>22</v>
@@ -3566,7 +3538,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -3575,19 +3547,19 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
@@ -3599,13 +3571,13 @@
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O34" t="s">
         <v>22</v>
@@ -3613,7 +3585,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -3622,10 +3594,10 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -3634,7 +3606,7 @@
         <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -3652,7 +3624,7 @@
         <v>33</v>
       </c>
       <c r="N35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O35" t="s">
         <v>22</v>
@@ -3660,7 +3632,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -3669,19 +3641,19 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
@@ -3693,13 +3665,13 @@
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N36" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O36" t="s">
         <v>22</v>
@@ -3707,7 +3679,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -3716,19 +3688,19 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
@@ -3743,10 +3715,10 @@
         <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N37" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O37" t="s">
         <v>22</v>
@@ -3754,7 +3726,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -3763,19 +3735,19 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -3790,10 +3762,10 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N38" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -3801,7 +3773,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -3810,19 +3782,19 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -3834,13 +3806,13 @@
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M39" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O39" t="s">
         <v>22</v>
@@ -3848,7 +3820,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -3857,19 +3829,19 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
         <v>19</v>
@@ -3884,10 +3856,10 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N40" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O40" t="s">
         <v>22</v>
@@ -3895,7 +3867,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -3904,19 +3876,19 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -3928,13 +3900,13 @@
         <v>31</v>
       </c>
       <c r="L41" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M41" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N41" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O41" t="s">
         <v>22</v>
@@ -3942,7 +3914,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -3951,19 +3923,19 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
@@ -3975,13 +3947,13 @@
         <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N42" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O42" t="s">
         <v>22</v>
@@ -3989,7 +3961,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -3998,19 +3970,19 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="I43" t="s">
         <v>19</v>
@@ -4025,10 +3997,10 @@
         <v>32</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N43" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O43" t="s">
         <v>22</v>
@@ -4036,7 +4008,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -4045,19 +4017,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -4069,13 +4041,13 @@
         <v>31</v>
       </c>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M44" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N44" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O44" t="s">
         <v>22</v>
@@ -4083,7 +4055,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -4092,19 +4064,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
@@ -4119,10 +4091,10 @@
         <v>32</v>
       </c>
       <c r="M45" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N45" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O45" t="s">
         <v>22</v>
@@ -4130,7 +4102,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -4139,19 +4111,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I46" t="s">
         <v>19</v>
@@ -4163,13 +4135,13 @@
         <v>31</v>
       </c>
       <c r="L46" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N46" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="O46" t="s">
         <v>22</v>
@@ -4177,7 +4149,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -4186,10 +4158,10 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -4198,7 +4170,7 @@
         <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
@@ -4216,7 +4188,7 @@
         <v>56</v>
       </c>
       <c r="N47" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="O47" t="s">
         <v>22</v>
@@ -4224,7 +4196,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -4233,19 +4205,19 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I48" t="s">
         <v>19</v>
@@ -4257,13 +4229,13 @@
         <v>31</v>
       </c>
       <c r="L48" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M48" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="O48" t="s">
         <v>22</v>
@@ -4271,7 +4243,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -4280,10 +4252,10 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -4292,7 +4264,7 @@
         <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
@@ -4310,7 +4282,7 @@
         <v>56</v>
       </c>
       <c r="N49" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="O49" t="s">
         <v>22</v>
@@ -4318,7 +4290,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -4327,19 +4299,19 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
@@ -4354,10 +4326,10 @@
         <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N50" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="O50" t="s">
         <v>22</v>
@@ -4365,7 +4337,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -4374,10 +4346,10 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -4386,7 +4358,7 @@
         <v>54</v>
       </c>
       <c r="H51" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
@@ -4404,7 +4376,7 @@
         <v>56</v>
       </c>
       <c r="N51" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O51" t="s">
         <v>22</v>
@@ -4412,7 +4384,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -4421,10 +4393,10 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -4433,7 +4405,7 @@
         <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I52" t="s">
         <v>19</v>
@@ -4451,7 +4423,7 @@
         <v>33</v>
       </c>
       <c r="N52" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="O52" t="s">
         <v>22</v>
@@ -4459,7 +4431,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -4468,19 +4440,19 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E53" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H53" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="I53" t="s">
         <v>19</v>
@@ -4495,10 +4467,10 @@
         <v>32</v>
       </c>
       <c r="M53" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N53" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O53" t="s">
         <v>22</v>
@@ -4506,7 +4478,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -4515,19 +4487,19 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
@@ -4542,10 +4514,10 @@
         <v>32</v>
       </c>
       <c r="M54" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N54" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O54" t="s">
         <v>22</v>
@@ -4553,7 +4525,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -4562,19 +4534,19 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I55" t="s">
         <v>19</v>
@@ -4589,10 +4561,10 @@
         <v>32</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N55" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O55" t="s">
         <v>22</v>
@@ -4600,7 +4572,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -4609,19 +4581,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H56" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="I56" t="s">
         <v>19</v>
@@ -4636,10 +4608,10 @@
         <v>32</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N56" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="O56" t="s">
         <v>22</v>
@@ -4647,7 +4619,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -4656,19 +4628,19 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s">
         <v>19</v>
@@ -4683,10 +4655,10 @@
         <v>32</v>
       </c>
       <c r="M57" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N57" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O57" t="s">
         <v>22</v>
@@ -4694,7 +4666,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -4703,19 +4675,19 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="I58" t="s">
         <v>19</v>
@@ -4727,13 +4699,13 @@
         <v>31</v>
       </c>
       <c r="L58" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M58" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N58" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O58" t="s">
         <v>22</v>
@@ -4741,7 +4713,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -4750,19 +4722,19 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H59" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="I59" t="s">
         <v>19</v>
@@ -4777,10 +4749,10 @@
         <v>32</v>
       </c>
       <c r="M59" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N59" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O59" t="s">
         <v>22</v>
@@ -4788,7 +4760,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
@@ -4797,19 +4769,19 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
         <v>19</v>
@@ -4821,13 +4793,13 @@
         <v>31</v>
       </c>
       <c r="L60" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M60" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N60" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O60" t="s">
         <v>22</v>
@@ -4835,7 +4807,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -4844,10 +4816,10 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -4856,7 +4828,7 @@
         <v>29</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="I61" t="s">
         <v>19</v>
@@ -4874,7 +4846,7 @@
         <v>33</v>
       </c>
       <c r="N61" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O61" t="s">
         <v>22</v>
@@ -4882,7 +4854,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -4891,19 +4863,19 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H62" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I62" t="s">
         <v>19</v>
@@ -4918,10 +4890,10 @@
         <v>32</v>
       </c>
       <c r="M62" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N62" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="O62" t="s">
         <v>22</v>
@@ -4929,7 +4901,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -4938,19 +4910,19 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I63" t="s">
         <v>19</v>
@@ -4962,13 +4934,13 @@
         <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M63" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N63" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O63" t="s">
         <v>22</v>
@@ -4976,7 +4948,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -4985,10 +4957,10 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -4997,7 +4969,7 @@
         <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="I64" t="s">
         <v>19</v>
@@ -5015,7 +4987,7 @@
         <v>33</v>
       </c>
       <c r="N64" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O64" t="s">
         <v>22</v>
@@ -5023,7 +4995,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
@@ -5032,19 +5004,19 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E65" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="I65" t="s">
         <v>19</v>
@@ -5056,13 +5028,13 @@
         <v>31</v>
       </c>
       <c r="L65" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M65" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N65" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="O65" t="s">
         <v>22</v>
@@ -5070,7 +5042,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -5079,19 +5051,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E66" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="I66" t="s">
         <v>19</v>
@@ -5103,13 +5075,13 @@
         <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M66" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N66" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="O66" t="s">
         <v>22</v>
@@ -5117,7 +5089,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -5126,19 +5098,19 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E67" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="I67" t="s">
         <v>19</v>
@@ -5150,13 +5122,13 @@
         <v>31</v>
       </c>
       <c r="L67" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M67" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="N67" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="O67" t="s">
         <v>22</v>
@@ -5164,7 +5136,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -5173,19 +5145,19 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E68" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I68" t="s">
         <v>19</v>
@@ -5197,13 +5169,13 @@
         <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M68" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O68" t="s">
         <v>22</v>
@@ -5211,7 +5183,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -5220,19 +5192,19 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E69" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="I69" t="s">
         <v>19</v>
@@ -5244,13 +5216,13 @@
         <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M69" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N69" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="O69" t="s">
         <v>22</v>
@@ -5258,7 +5230,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -5267,10 +5239,10 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E70" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -5279,7 +5251,7 @@
         <v>54</v>
       </c>
       <c r="H70" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="I70" t="s">
         <v>19</v>
@@ -5297,7 +5269,7 @@
         <v>56</v>
       </c>
       <c r="N70" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="O70" t="s">
         <v>22</v>
@@ -5305,7 +5277,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -5314,10 +5286,10 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E71" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -5326,7 +5298,7 @@
         <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I71" t="s">
         <v>19</v>
@@ -5344,7 +5316,7 @@
         <v>56</v>
       </c>
       <c r="N71" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="O71" t="s">
         <v>22</v>
@@ -5352,7 +5324,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -5361,10 +5333,10 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E72" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -5373,7 +5345,7 @@
         <v>54</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I72" t="s">
         <v>19</v>
@@ -5391,7 +5363,7 @@
         <v>56</v>
       </c>
       <c r="N72" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="O72" t="s">
         <v>22</v>
@@ -5399,7 +5371,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
@@ -5408,19 +5380,19 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E73" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H73" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="I73" t="s">
         <v>19</v>
@@ -5432,13 +5404,13 @@
         <v>31</v>
       </c>
       <c r="L73" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M73" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N73" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="O73" t="s">
         <v>22</v>
@@ -5446,7 +5418,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -5455,19 +5427,19 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E74" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="I74" t="s">
         <v>19</v>
@@ -5479,13 +5451,13 @@
         <v>31</v>
       </c>
       <c r="L74" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M74" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N74" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="O74" t="s">
         <v>22</v>
@@ -5493,7 +5465,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -5502,19 +5474,19 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E75" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
@@ -5526,13 +5498,13 @@
         <v>31</v>
       </c>
       <c r="L75" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M75" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N75" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="O75" t="s">
         <v>22</v>
@@ -5540,7 +5512,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -5549,19 +5521,19 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E76" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
         <v>19</v>
@@ -5573,13 +5545,13 @@
         <v>31</v>
       </c>
       <c r="L76" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M76" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N76" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="O76" t="s">
         <v>22</v>
@@ -5587,7 +5559,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -5596,19 +5568,19 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E77" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="I77" t="s">
         <v>19</v>
@@ -5620,13 +5592,13 @@
         <v>31</v>
       </c>
       <c r="L77" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M77" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N77" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="O77" t="s">
         <v>22</v>
@@ -5634,7 +5606,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -5643,10 +5615,10 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E78" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -5655,7 +5627,7 @@
         <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -5673,7 +5645,7 @@
         <v>33</v>
       </c>
       <c r="N78" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="O78" t="s">
         <v>22</v>
@@ -5681,7 +5653,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -5690,19 +5662,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E79" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I79" t="s">
         <v>19</v>
@@ -5714,13 +5686,13 @@
         <v>31</v>
       </c>
       <c r="L79" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M79" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="O79" t="s">
         <v>22</v>
@@ -5728,7 +5700,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -5737,19 +5709,19 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E80" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H80" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="I80" t="s">
         <v>19</v>
@@ -5761,13 +5733,13 @@
         <v>31</v>
       </c>
       <c r="L80" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M80" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N80" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="O80" t="s">
         <v>22</v>
@@ -5775,7 +5747,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
@@ -5784,10 +5756,10 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E81" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
@@ -5796,7 +5768,7 @@
         <v>29</v>
       </c>
       <c r="H81" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="I81" t="s">
         <v>19</v>
@@ -5814,7 +5786,7 @@
         <v>33</v>
       </c>
       <c r="N81" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="O81" t="s">
         <v>22</v>
@@ -5822,19 +5794,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>386</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>378</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="F82" t="s">
         <v>45</v>
@@ -5843,7 +5815,7 @@
         <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="I82" t="s">
         <v>19</v>
@@ -5861,7 +5833,7 @@
         <v>49</v>
       </c>
       <c r="N82" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O82" t="s">
         <v>22</v>
@@ -5869,28 +5841,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>386</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="E83" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="I83" t="s">
         <v>19</v>
@@ -5905,10 +5877,10 @@
         <v>32</v>
       </c>
       <c r="M83" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N83" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O83" t="s">
         <v>22</v>
@@ -5916,7 +5888,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -5925,19 +5897,19 @@
         <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>287</v>
+        <v>89</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="I84" t="s">
         <v>19</v>
@@ -5949,13 +5921,13 @@
         <v>31</v>
       </c>
       <c r="L84" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M84" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N84" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O84" t="s">
         <v>22</v>
@@ -5963,7 +5935,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -5972,19 +5944,19 @@
         <v>386</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I85" t="s">
         <v>19</v>
@@ -5996,13 +5968,13 @@
         <v>31</v>
       </c>
       <c r="L85" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M85" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N85" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="O85" t="s">
         <v>22</v>
@@ -6010,7 +5982,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -6019,19 +5991,19 @@
         <v>386</v>
       </c>
       <c r="D86" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="E86" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="I86" t="s">
         <v>19</v>
@@ -6043,13 +6015,13 @@
         <v>31</v>
       </c>
       <c r="L86" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M86" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N86" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O86" t="s">
         <v>22</v>
@@ -6057,7 +6029,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -6066,19 +6038,19 @@
         <v>386</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I87" t="s">
         <v>19</v>
@@ -6090,13 +6062,13 @@
         <v>31</v>
       </c>
       <c r="L87" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M87" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N87" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O87" t="s">
         <v>22</v>
@@ -6104,7 +6076,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -6113,19 +6085,19 @@
         <v>386</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="E88" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
         <v>19</v>
@@ -6137,13 +6109,13 @@
         <v>31</v>
       </c>
       <c r="L88" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M88" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N88" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O88" t="s">
         <v>22</v>
@@ -6151,7 +6123,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
@@ -6160,10 +6132,10 @@
         <v>386</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -6172,7 +6144,7 @@
         <v>54</v>
       </c>
       <c r="H89" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="I89" t="s">
         <v>19</v>
@@ -6190,7 +6162,7 @@
         <v>56</v>
       </c>
       <c r="N89" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O89" t="s">
         <v>22</v>
@@ -6198,7 +6170,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
@@ -6207,10 +6179,10 @@
         <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>283</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -6219,7 +6191,7 @@
         <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
@@ -6237,7 +6209,7 @@
         <v>33</v>
       </c>
       <c r="N90" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O90" t="s">
         <v>22</v>
@@ -6245,7 +6217,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -6254,19 +6226,19 @@
         <v>386</v>
       </c>
       <c r="D91" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H91" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="I91" t="s">
         <v>19</v>
@@ -6281,10 +6253,10 @@
         <v>32</v>
       </c>
       <c r="M91" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N91" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O91" t="s">
         <v>22</v>
@@ -6292,7 +6264,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
@@ -6301,19 +6273,19 @@
         <v>386</v>
       </c>
       <c r="D92" t="s">
-        <v>262</v>
+        <v>403</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>404</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="I92" t="s">
         <v>19</v>
@@ -6328,10 +6300,10 @@
         <v>32</v>
       </c>
       <c r="M92" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N92" t="s">
-        <v>24</v>
+        <v>405</v>
       </c>
       <c r="O92" t="s">
         <v>22</v>
@@ -6339,7 +6311,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -6348,19 +6320,19 @@
         <v>386</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="I93" t="s">
         <v>19</v>
@@ -6372,13 +6344,13 @@
         <v>31</v>
       </c>
       <c r="L93" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M93" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N93" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O93" t="s">
         <v>22</v>
@@ -6386,7 +6358,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
@@ -6395,19 +6367,19 @@
         <v>386</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H94" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
@@ -6422,10 +6394,10 @@
         <v>32</v>
       </c>
       <c r="M94" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N94" t="s">
-        <v>412</v>
+        <v>24</v>
       </c>
       <c r="O94" t="s">
         <v>22</v>
@@ -6433,7 +6405,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -6442,19 +6414,19 @@
         <v>386</v>
       </c>
       <c r="D95" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="E95" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I95" t="s">
         <v>19</v>
@@ -6466,13 +6438,13 @@
         <v>31</v>
       </c>
       <c r="L95" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M95" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N95" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O95" t="s">
         <v>22</v>
@@ -6480,7 +6452,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
@@ -6489,10 +6461,10 @@
         <v>386</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -6501,7 +6473,7 @@
         <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I96" t="s">
         <v>19</v>
@@ -6519,7 +6491,7 @@
         <v>33</v>
       </c>
       <c r="N96" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O96" t="s">
         <v>22</v>
@@ -6527,7 +6499,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -6536,19 +6508,19 @@
         <v>386</v>
       </c>
       <c r="D97" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="E97" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H97" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="I97" t="s">
         <v>19</v>
@@ -6563,10 +6535,10 @@
         <v>32</v>
       </c>
       <c r="M97" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N97" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O97" t="s">
         <v>22</v>
@@ -6574,7 +6546,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
@@ -6583,19 +6555,19 @@
         <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>342</v>
+        <v>126</v>
       </c>
       <c r="E98" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H98" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="I98" t="s">
         <v>19</v>
@@ -6610,10 +6582,10 @@
         <v>32</v>
       </c>
       <c r="M98" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N98" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O98" t="s">
         <v>22</v>
@@ -6621,7 +6593,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
@@ -6630,10 +6602,10 @@
         <v>386</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="E99" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -6642,7 +6614,7 @@
         <v>29</v>
       </c>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="I99" t="s">
         <v>19</v>
@@ -6660,7 +6632,7 @@
         <v>33</v>
       </c>
       <c r="N99" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="O99" t="s">
         <v>22</v>
@@ -6668,7 +6640,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -6677,19 +6649,19 @@
         <v>386</v>
       </c>
       <c r="D100" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E100" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H100" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="I100" t="s">
         <v>19</v>
@@ -6701,13 +6673,13 @@
         <v>31</v>
       </c>
       <c r="L100" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M100" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N100" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O100" t="s">
         <v>22</v>
@@ -6715,7 +6687,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -6724,19 +6696,19 @@
         <v>386</v>
       </c>
       <c r="D101" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="E101" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="I101" t="s">
         <v>19</v>
@@ -6748,13 +6720,13 @@
         <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M101" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N101" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O101" t="s">
         <v>22</v>
@@ -6762,7 +6734,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -6771,19 +6743,19 @@
         <v>386</v>
       </c>
       <c r="D102" t="s">
-        <v>229</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s">
-        <v>230</v>
+        <v>367</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="I102" t="s">
         <v>19</v>
@@ -6795,13 +6767,13 @@
         <v>31</v>
       </c>
       <c r="L102" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M102" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N102" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O102" t="s">
         <v>22</v>
@@ -6809,7 +6781,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -6818,19 +6790,19 @@
         <v>386</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G103" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H103" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I103" t="s">
         <v>19</v>
@@ -6842,13 +6814,13 @@
         <v>31</v>
       </c>
       <c r="L103" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M103" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N103" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O103" t="s">
         <v>22</v>
@@ -6856,7 +6828,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -6865,19 +6837,19 @@
         <v>386</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="I104" t="s">
         <v>19</v>
@@ -6892,10 +6864,10 @@
         <v>32</v>
       </c>
       <c r="M104" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N104" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O104" t="s">
         <v>22</v>
@@ -6903,7 +6875,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -6912,19 +6884,19 @@
         <v>386</v>
       </c>
       <c r="D105" t="s">
-        <v>378</v>
+        <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>379</v>
+        <v>53</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H105" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
@@ -6936,13 +6908,13 @@
         <v>31</v>
       </c>
       <c r="L105" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M105" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N105" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O105" t="s">
         <v>22</v>
@@ -6950,7 +6922,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -6959,19 +6931,19 @@
         <v>386</v>
       </c>
       <c r="D106" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="E106" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I106" t="s">
         <v>19</v>
@@ -6983,13 +6955,13 @@
         <v>31</v>
       </c>
       <c r="L106" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M106" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="N106" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O106" t="s">
         <v>22</v>
@@ -6997,7 +6969,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
@@ -7006,19 +6978,19 @@
         <v>386</v>
       </c>
       <c r="D107" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E107" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="I107" t="s">
         <v>19</v>
@@ -7030,13 +7002,13 @@
         <v>31</v>
       </c>
       <c r="L107" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M107" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N107" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O107" t="s">
         <v>22</v>
@@ -7044,7 +7016,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
@@ -7053,19 +7025,19 @@
         <v>386</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="E108" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G108" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H108" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
         <v>19</v>
@@ -7077,13 +7049,13 @@
         <v>31</v>
       </c>
       <c r="L108" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M108" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N108" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O108" t="s">
         <v>22</v>
@@ -7091,7 +7063,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
@@ -7100,16 +7072,16 @@
         <v>386</v>
       </c>
       <c r="D109" t="s">
-        <v>59</v>
+        <v>382</v>
       </c>
       <c r="E109" t="s">
-        <v>60</v>
+        <v>383</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H109" t="s">
         <v>61</v>
@@ -7127,10 +7099,10 @@
         <v>32</v>
       </c>
       <c r="M109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N109" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O109" t="s">
         <v>22</v>
@@ -7138,7 +7110,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
@@ -7147,16 +7119,16 @@
         <v>386</v>
       </c>
       <c r="D110" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>300</v>
       </c>
       <c r="F110" t="s">
         <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H110" t="s">
         <v>105</v>
@@ -7174,10 +7146,10 @@
         <v>32</v>
       </c>
       <c r="M110" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N110" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O110" t="s">
         <v>22</v>
@@ -7185,7 +7157,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
@@ -7194,19 +7166,19 @@
         <v>386</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="E111" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H111" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I111" t="s">
         <v>19</v>
@@ -7218,13 +7190,13 @@
         <v>31</v>
       </c>
       <c r="L111" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M111" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N111" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O111" t="s">
         <v>22</v>
@@ -7232,7 +7204,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
@@ -7241,19 +7213,19 @@
         <v>386</v>
       </c>
       <c r="D112" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="E112" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H112" t="s">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="I112" t="s">
         <v>19</v>
@@ -7268,10 +7240,10 @@
         <v>32</v>
       </c>
       <c r="M112" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N112" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O112" t="s">
         <v>22</v>
@@ -7279,7 +7251,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -7288,19 +7260,19 @@
         <v>386</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>122</v>
       </c>
       <c r="E113" t="s">
-        <v>451</v>
+        <v>123</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="I113" t="s">
         <v>19</v>
@@ -7312,13 +7284,13 @@
         <v>31</v>
       </c>
       <c r="L113" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M113" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N113" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O113" t="s">
         <v>22</v>
@@ -7326,7 +7298,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -7335,19 +7307,19 @@
         <v>386</v>
       </c>
       <c r="D114" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I114" t="s">
         <v>19</v>
@@ -7359,13 +7331,13 @@
         <v>31</v>
       </c>
       <c r="L114" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M114" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N114" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="O114" t="s">
         <v>22</v>
@@ -7373,7 +7345,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -7382,19 +7354,19 @@
         <v>386</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="E115" t="s">
-        <v>145</v>
+        <v>451</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="I115" t="s">
         <v>19</v>
@@ -7406,13 +7378,13 @@
         <v>31</v>
       </c>
       <c r="L115" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M115" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N115" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O115" t="s">
         <v>22</v>
@@ -7420,7 +7392,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
@@ -7429,19 +7401,19 @@
         <v>386</v>
       </c>
       <c r="D116" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="E116" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
         <v>19</v>
@@ -7453,13 +7425,13 @@
         <v>31</v>
       </c>
       <c r="L116" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M116" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N116" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O116" t="s">
         <v>22</v>
@@ -7467,7 +7439,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -7476,19 +7448,19 @@
         <v>386</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="E117" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="I117" t="s">
         <v>19</v>
@@ -7500,13 +7472,13 @@
         <v>31</v>
       </c>
       <c r="L117" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M117" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N117" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O117" t="s">
         <v>22</v>
@@ -7514,7 +7486,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
@@ -7523,19 +7495,19 @@
         <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="E118" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H118" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="I118" t="s">
         <v>19</v>
@@ -7550,10 +7522,10 @@
         <v>32</v>
       </c>
       <c r="M118" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N118" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O118" t="s">
         <v>22</v>
@@ -7561,7 +7533,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
@@ -7570,19 +7542,19 @@
         <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H119" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I119" t="s">
         <v>19</v>
@@ -7594,13 +7566,13 @@
         <v>31</v>
       </c>
       <c r="L119" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M119" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N119" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O119" t="s">
         <v>22</v>
@@ -7608,7 +7580,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -7617,19 +7589,19 @@
         <v>386</v>
       </c>
       <c r="D120" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="E120" t="s">
-        <v>312</v>
+        <v>94</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H120" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I120" t="s">
         <v>19</v>
@@ -7641,13 +7613,13 @@
         <v>31</v>
       </c>
       <c r="L120" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M120" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N120" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O120" t="s">
         <v>22</v>
@@ -7655,7 +7627,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -7664,19 +7636,19 @@
         <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="E121" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H121" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I121" t="s">
         <v>19</v>
@@ -7688,13 +7660,13 @@
         <v>31</v>
       </c>
       <c r="L121" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M121" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N121" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O121" t="s">
         <v>22</v>
@@ -7702,7 +7674,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -7711,19 +7683,19 @@
         <v>386</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="E122" t="s">
-        <v>65</v>
+        <v>312</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H122" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I122" t="s">
         <v>19</v>
@@ -7735,13 +7707,13 @@
         <v>31</v>
       </c>
       <c r="L122" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M122" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N122" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O122" t="s">
         <v>22</v>
@@ -7749,7 +7721,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -7758,10 +7730,10 @@
         <v>386</v>
       </c>
       <c r="D123" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="E123" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -7770,7 +7742,7 @@
         <v>38</v>
       </c>
       <c r="H123" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
@@ -7788,7 +7760,7 @@
         <v>40</v>
       </c>
       <c r="N123" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O123" t="s">
         <v>22</v>
@@ -7796,7 +7768,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -7805,19 +7777,19 @@
         <v>386</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E124" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H124" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
@@ -7829,13 +7801,13 @@
         <v>31</v>
       </c>
       <c r="L124" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M124" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N124" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="O124" t="s">
         <v>22</v>
@@ -7843,7 +7815,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -7852,19 +7824,19 @@
         <v>386</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="E125" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H125" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="I125" t="s">
         <v>19</v>
@@ -7879,10 +7851,10 @@
         <v>32</v>
       </c>
       <c r="M125" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N125" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O125" t="s">
         <v>22</v>
@@ -7890,7 +7862,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
@@ -7899,19 +7871,19 @@
         <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="E126" t="s">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="F126" t="s">
         <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
@@ -7926,10 +7898,10 @@
         <v>48</v>
       </c>
       <c r="M126" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N126" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O126" t="s">
         <v>22</v>
@@ -7937,7 +7909,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
@@ -7946,19 +7918,19 @@
         <v>386</v>
       </c>
       <c r="D127" t="s">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>351</v>
+        <v>132</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H127" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I127" t="s">
         <v>19</v>
@@ -7970,13 +7942,13 @@
         <v>31</v>
       </c>
       <c r="L127" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M127" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N127" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O127" t="s">
         <v>22</v>
@@ -7984,7 +7956,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -7993,10 +7965,10 @@
         <v>386</v>
       </c>
       <c r="D128" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="E128" t="s">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="F128" t="s">
         <v>45</v>
@@ -8005,7 +7977,7 @@
         <v>83</v>
       </c>
       <c r="H128" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="I128" t="s">
         <v>19</v>
@@ -8023,7 +7995,7 @@
         <v>85</v>
       </c>
       <c r="N128" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O128" t="s">
         <v>22</v>
@@ -8031,7 +8003,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -8040,19 +8012,19 @@
         <v>386</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E129" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H129" t="s">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="I129" t="s">
         <v>19</v>
@@ -8064,13 +8036,13 @@
         <v>31</v>
       </c>
       <c r="L129" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M129" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N129" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O129" t="s">
         <v>22</v>
@@ -8078,7 +8050,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -8087,10 +8059,10 @@
         <v>386</v>
       </c>
       <c r="D130" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="E130" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="F130" t="s">
         <v>45</v>
@@ -8099,7 +8071,7 @@
         <v>83</v>
       </c>
       <c r="H130" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
@@ -8117,7 +8089,7 @@
         <v>85</v>
       </c>
       <c r="N130" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O130" t="s">
         <v>22</v>
@@ -8125,7 +8097,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -8134,10 +8106,10 @@
         <v>386</v>
       </c>
       <c r="D131" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="E131" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -8146,7 +8118,7 @@
         <v>29</v>
       </c>
       <c r="H131" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="I131" t="s">
         <v>19</v>
@@ -8164,7 +8136,7 @@
         <v>33</v>
       </c>
       <c r="N131" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O131" t="s">
         <v>22</v>
@@ -8172,7 +8144,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
@@ -8181,19 +8153,19 @@
         <v>386</v>
       </c>
       <c r="D132" t="s">
-        <v>374</v>
+        <v>208</v>
       </c>
       <c r="E132" t="s">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
@@ -8205,13 +8177,13 @@
         <v>31</v>
       </c>
       <c r="L132" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M132" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N132" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O132" t="s">
         <v>22</v>
@@ -8219,7 +8191,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -8228,19 +8200,19 @@
         <v>386</v>
       </c>
       <c r="D133" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="I133" t="s">
         <v>19</v>
@@ -8255,10 +8227,10 @@
         <v>32</v>
       </c>
       <c r="M133" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N133" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O133" t="s">
         <v>22</v>
@@ -8266,7 +8238,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
@@ -8275,10 +8247,10 @@
         <v>386</v>
       </c>
       <c r="D134" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E134" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -8287,7 +8259,7 @@
         <v>29</v>
       </c>
       <c r="H134" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="I134" t="s">
         <v>19</v>
@@ -8305,7 +8277,7 @@
         <v>33</v>
       </c>
       <c r="N134" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O134" t="s">
         <v>22</v>
@@ -8313,7 +8285,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
@@ -8322,19 +8294,19 @@
         <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="E135" t="s">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I135" t="s">
         <v>19</v>
@@ -8349,10 +8321,10 @@
         <v>32</v>
       </c>
       <c r="M135" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N135" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O135" t="s">
         <v>22</v>
@@ -8360,7 +8332,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
@@ -8369,19 +8341,19 @@
         <v>386</v>
       </c>
       <c r="D136" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="E136" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="I136" t="s">
         <v>19</v>
@@ -8396,10 +8368,10 @@
         <v>32</v>
       </c>
       <c r="M136" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N136" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="O136" t="s">
         <v>22</v>
@@ -8407,7 +8379,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
@@ -8416,19 +8388,19 @@
         <v>386</v>
       </c>
       <c r="D137" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="E137" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H137" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
@@ -8443,10 +8415,10 @@
         <v>32</v>
       </c>
       <c r="M137" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N137" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="O137" t="s">
         <v>22</v>
@@ -8454,7 +8426,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
@@ -8463,19 +8435,19 @@
         <v>386</v>
       </c>
       <c r="D138" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H138" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="I138" t="s">
         <v>19</v>
@@ -8490,10 +8462,10 @@
         <v>32</v>
       </c>
       <c r="M138" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N138" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O138" t="s">
         <v>22</v>
@@ -8501,7 +8473,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
@@ -8510,19 +8482,19 @@
         <v>386</v>
       </c>
       <c r="D139" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="E139" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H139" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="I139" t="s">
         <v>19</v>
@@ -8537,10 +8509,10 @@
         <v>32</v>
       </c>
       <c r="M139" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N139" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O139" t="s">
         <v>22</v>
@@ -8548,7 +8520,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
@@ -8557,19 +8529,19 @@
         <v>386</v>
       </c>
       <c r="D140" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="E140" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H140" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
@@ -8584,10 +8556,10 @@
         <v>32</v>
       </c>
       <c r="M140" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N140" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O140" t="s">
         <v>22</v>
@@ -8595,7 +8567,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
@@ -8604,19 +8576,19 @@
         <v>386</v>
       </c>
       <c r="D141" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="E141" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="I141" t="s">
         <v>19</v>
@@ -8631,10 +8603,10 @@
         <v>32</v>
       </c>
       <c r="M141" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N141" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="O141" t="s">
         <v>22</v>
@@ -8642,7 +8614,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
@@ -8651,19 +8623,19 @@
         <v>386</v>
       </c>
       <c r="D142" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E142" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H142" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="I142" t="s">
         <v>19</v>
@@ -8678,10 +8650,10 @@
         <v>32</v>
       </c>
       <c r="M142" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N142" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O142" t="s">
         <v>22</v>
@@ -8689,7 +8661,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
@@ -8698,10 +8670,10 @@
         <v>386</v>
       </c>
       <c r="D143" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E143" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -8710,7 +8682,7 @@
         <v>38</v>
       </c>
       <c r="H143" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I143" t="s">
         <v>19</v>
@@ -8728,7 +8700,7 @@
         <v>40</v>
       </c>
       <c r="N143" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O143" t="s">
         <v>22</v>
@@ -8736,7 +8708,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
@@ -8745,10 +8717,10 @@
         <v>386</v>
       </c>
       <c r="D144" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="E144" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
@@ -8757,7 +8729,7 @@
         <v>54</v>
       </c>
       <c r="H144" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="I144" t="s">
         <v>19</v>
@@ -8775,7 +8747,7 @@
         <v>56</v>
       </c>
       <c r="N144" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O144" t="s">
         <v>22</v>
@@ -8783,7 +8755,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
@@ -8792,19 +8764,19 @@
         <v>386</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="E145" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H145" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="I145" t="s">
         <v>19</v>
@@ -8816,13 +8788,13 @@
         <v>31</v>
       </c>
       <c r="L145" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M145" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N145" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O145" t="s">
         <v>22</v>
@@ -8830,7 +8802,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
@@ -8839,16 +8811,16 @@
         <v>386</v>
       </c>
       <c r="D146" t="s">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c r="E146" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H146" t="s">
         <v>39</v>
@@ -8866,10 +8838,10 @@
         <v>32</v>
       </c>
       <c r="M146" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N146" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O146" t="s">
         <v>22</v>
@@ -8877,7 +8849,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
@@ -8886,16 +8858,16 @@
         <v>386</v>
       </c>
       <c r="D147" t="s">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="E147" t="s">
-        <v>328</v>
+        <v>70</v>
       </c>
       <c r="F147" t="s">
         <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H147" t="s">
         <v>71</v>
@@ -8913,10 +8885,10 @@
         <v>48</v>
       </c>
       <c r="M147" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N147" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="O147" t="s">
         <v>22</v>
@@ -8924,7 +8896,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -8933,19 +8905,19 @@
         <v>386</v>
       </c>
       <c r="D148" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="F148" t="s">
         <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H148" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="I148" t="s">
         <v>19</v>
@@ -8960,10 +8932,10 @@
         <v>32</v>
       </c>
       <c r="M148" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N148" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O148" t="s">
         <v>22</v>
@@ -8971,7 +8943,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -8980,19 +8952,19 @@
         <v>386</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="E149" t="s">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H149" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="I149" t="s">
         <v>19</v>
@@ -9004,13 +8976,13 @@
         <v>31</v>
       </c>
       <c r="L149" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M149" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N149" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O149" t="s">
         <v>22</v>
@@ -9018,7 +8990,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
@@ -9027,19 +8999,19 @@
         <v>386</v>
       </c>
       <c r="D150" t="s">
-        <v>526</v>
+        <v>274</v>
       </c>
       <c r="E150" t="s">
-        <v>527</v>
+        <v>275</v>
       </c>
       <c r="F150" t="s">
         <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H150" t="s">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="I150" t="s">
         <v>19</v>
@@ -9054,10 +9026,10 @@
         <v>32</v>
       </c>
       <c r="M150" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N150" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="O150" t="s">
         <v>22</v>
@@ -9065,7 +9037,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
@@ -9074,19 +9046,19 @@
         <v>386</v>
       </c>
       <c r="D151" t="s">
-        <v>358</v>
+        <v>177</v>
       </c>
       <c r="E151" t="s">
-        <v>359</v>
+        <v>178</v>
       </c>
       <c r="F151" t="s">
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H151" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="I151" t="s">
         <v>19</v>
@@ -9101,10 +9073,10 @@
         <v>32</v>
       </c>
       <c r="M151" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N151" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="O151" t="s">
         <v>22</v>
@@ -9112,7 +9084,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
@@ -9121,19 +9093,19 @@
         <v>386</v>
       </c>
       <c r="D152" t="s">
-        <v>98</v>
+        <v>526</v>
       </c>
       <c r="E152" t="s">
-        <v>99</v>
+        <v>527</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H152" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="I152" t="s">
         <v>19</v>
@@ -9145,13 +9117,13 @@
         <v>31</v>
       </c>
       <c r="L152" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M152" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="N152" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="O152" t="s">
         <v>22</v>
@@ -9159,7 +9131,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
@@ -9168,10 +9140,10 @@
         <v>386</v>
       </c>
       <c r="D153" t="s">
-        <v>140</v>
+        <v>358</v>
       </c>
       <c r="E153" t="s">
-        <v>141</v>
+        <v>359</v>
       </c>
       <c r="F153" t="s">
         <v>18</v>
@@ -9180,7 +9152,7 @@
         <v>54</v>
       </c>
       <c r="H153" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
@@ -9198,7 +9170,7 @@
         <v>56</v>
       </c>
       <c r="N153" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="O153" t="s">
         <v>22</v>
@@ -9206,7 +9178,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
@@ -9215,19 +9187,19 @@
         <v>386</v>
       </c>
       <c r="D154" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E154" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H154" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="I154" t="s">
         <v>19</v>
@@ -9239,13 +9211,13 @@
         <v>31</v>
       </c>
       <c r="L154" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M154" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N154" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="O154" t="s">
         <v>22</v>
@@ -9253,7 +9225,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
@@ -9262,10 +9234,10 @@
         <v>386</v>
       </c>
       <c r="D155" t="s">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="E155" t="s">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
@@ -9274,7 +9246,7 @@
         <v>54</v>
       </c>
       <c r="H155" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
@@ -9292,7 +9264,7 @@
         <v>56</v>
       </c>
       <c r="N155" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O155" t="s">
         <v>22</v>
@@ -9300,7 +9272,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
@@ -9309,10 +9281,10 @@
         <v>386</v>
       </c>
       <c r="D156" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="E156" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
@@ -9321,7 +9293,7 @@
         <v>29</v>
       </c>
       <c r="H156" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="I156" t="s">
         <v>19</v>
@@ -9339,7 +9311,7 @@
         <v>33</v>
       </c>
       <c r="N156" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O156" t="s">
         <v>22</v>
@@ -9347,7 +9319,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
@@ -9356,10 +9328,10 @@
         <v>386</v>
       </c>
       <c r="D157" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E157" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
@@ -9368,7 +9340,7 @@
         <v>54</v>
       </c>
       <c r="H157" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
@@ -9386,7 +9358,7 @@
         <v>56</v>
       </c>
       <c r="N157" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="O157" t="s">
         <v>22</v>
@@ -9394,7 +9366,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
@@ -9403,39 +9375,133 @@
         <v>386</v>
       </c>
       <c r="D158" t="s">
+        <v>190</v>
+      </c>
+      <c r="E158" t="s">
+        <v>191</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" t="s">
+        <v>192</v>
+      </c>
+      <c r="I158" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" t="s">
+        <v>31</v>
+      </c>
+      <c r="L158" t="s">
+        <v>32</v>
+      </c>
+      <c r="M158" t="s">
+        <v>33</v>
+      </c>
+      <c r="N158" t="s">
+        <v>540</v>
+      </c>
+      <c r="O158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>541</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>386</v>
+      </c>
+      <c r="D159" t="s">
+        <v>338</v>
+      </c>
+      <c r="E159" t="s">
+        <v>339</v>
+      </c>
+      <c r="F159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>54</v>
+      </c>
+      <c r="H159" t="s">
+        <v>151</v>
+      </c>
+      <c r="I159" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" t="s">
+        <v>31</v>
+      </c>
+      <c r="L159" t="s">
+        <v>32</v>
+      </c>
+      <c r="M159" t="s">
+        <v>56</v>
+      </c>
+      <c r="N159" t="s">
+        <v>542</v>
+      </c>
+      <c r="O159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>543</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>386</v>
+      </c>
+      <c r="D160" t="s">
         <v>243</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E160" t="s">
         <v>244</v>
       </c>
-      <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
         <v>54</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H160" t="s">
         <v>245</v>
       </c>
-      <c r="I158" t="s">
-        <v>19</v>
-      </c>
-      <c r="J158" t="s">
-        <v>20</v>
-      </c>
-      <c r="K158" t="s">
-        <v>31</v>
-      </c>
-      <c r="L158" t="s">
-        <v>32</v>
-      </c>
-      <c r="M158" t="s">
+      <c r="I160" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" t="s">
+        <v>31</v>
+      </c>
+      <c r="L160" t="s">
+        <v>32</v>
+      </c>
+      <c r="M160" t="s">
         <v>56</v>
       </c>
-      <c r="N158" t="s">
+      <c r="N160" t="s">
         <v>544</v>
       </c>
-      <c r="O158" t="s">
+      <c r="O160" t="s">
         <v>22</v>
       </c>
     </row>

--- a/analysis/mails_01/P11_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_2/table_to_fill.xlsx
@@ -2133,32 +2133,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>
@@ -2166,32 +2156,46 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
@@ -2199,22 +2203,46 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -2222,7 +2250,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -2231,19 +2259,19 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -2255,13 +2283,13 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
         <v>22</v>
@@ -2269,7 +2297,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -2278,19 +2306,19 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -2305,10 +2333,10 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
@@ -2316,7 +2344,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2325,19 +2353,19 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -2349,13 +2377,13 @@
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s">
         <v>22</v>
@@ -2363,7 +2391,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -2372,10 +2400,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -2384,7 +2412,7 @@
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -2402,7 +2430,7 @@
         <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
         <v>22</v>
@@ -2410,7 +2438,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -2419,19 +2447,19 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -2443,13 +2471,13 @@
         <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
         <v>22</v>
@@ -2457,7 +2485,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2466,19 +2494,19 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -2490,13 +2518,13 @@
         <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
         <v>22</v>
@@ -2504,7 +2532,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -2513,19 +2541,19 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -2540,10 +2568,10 @@
         <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
         <v>22</v>
@@ -2551,7 +2579,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2560,19 +2588,19 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -2587,10 +2615,10 @@
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
         <v>22</v>
@@ -2598,7 +2626,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -2607,19 +2635,19 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
@@ -2631,13 +2659,13 @@
         <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
         <v>22</v>
@@ -2645,7 +2673,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2654,19 +2682,19 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
@@ -2681,10 +2709,10 @@
         <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
         <v>22</v>
@@ -2692,7 +2720,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2701,10 +2729,10 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -2713,7 +2741,7 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
@@ -2731,7 +2759,7 @@
         <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O16" t="s">
         <v>22</v>
@@ -2739,7 +2767,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -2748,19 +2776,19 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
@@ -2775,10 +2803,10 @@
         <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
         <v>22</v>
@@ -2786,7 +2814,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -2795,19 +2823,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -2822,10 +2850,10 @@
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N18" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s">
         <v>22</v>
@@ -2833,7 +2861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -2842,19 +2870,19 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -2866,13 +2894,13 @@
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
         <v>22</v>
@@ -2880,7 +2908,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -2889,19 +2917,19 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -2913,13 +2941,13 @@
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O20" t="s">
         <v>22</v>
@@ -2927,7 +2955,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -2936,19 +2964,19 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -2963,10 +2991,10 @@
         <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s">
         <v>22</v>
@@ -2974,7 +3002,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -2983,19 +3011,19 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -3007,13 +3035,13 @@
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O22" t="s">
         <v>22</v>
@@ -3021,7 +3049,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -3030,10 +3058,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -3042,7 +3070,7 @@
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
@@ -3060,7 +3088,7 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O23" t="s">
         <v>22</v>
@@ -3068,7 +3096,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -3077,19 +3105,19 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -3104,10 +3132,10 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O24" t="s">
         <v>22</v>
@@ -3115,7 +3143,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -3124,19 +3152,19 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -3148,13 +3176,13 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O25" t="s">
         <v>22</v>
@@ -3162,7 +3190,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -3171,19 +3199,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="I26" t="s">
         <v>19</v>
@@ -3198,10 +3226,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O26" t="s">
         <v>22</v>
@@ -3209,7 +3237,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -3218,19 +3246,19 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -3242,13 +3270,13 @@
         <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O27" t="s">
         <v>22</v>
@@ -3256,7 +3284,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -3265,19 +3293,19 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
@@ -3292,10 +3320,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O28" t="s">
         <v>22</v>
@@ -3303,7 +3331,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -3312,10 +3340,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -3324,7 +3352,7 @@
         <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -3342,7 +3370,7 @@
         <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="O29" t="s">
         <v>22</v>
@@ -3350,7 +3378,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -3359,19 +3387,19 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -3383,13 +3411,13 @@
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N30" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="O30" t="s">
         <v>22</v>
@@ -3397,7 +3425,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -3406,19 +3434,19 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
@@ -3430,13 +3458,13 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M31" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N31" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O31" t="s">
         <v>22</v>
@@ -3444,7 +3472,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -3453,19 +3481,19 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -3477,13 +3505,13 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N32" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="O32" t="s">
         <v>22</v>
@@ -3491,7 +3519,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -3500,19 +3528,19 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
@@ -3524,13 +3552,13 @@
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N33" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O33" t="s">
         <v>22</v>
@@ -3538,7 +3566,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -3547,19 +3575,19 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
@@ -3571,13 +3599,13 @@
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M34" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N34" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O34" t="s">
         <v>22</v>
@@ -3585,7 +3613,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -3594,10 +3622,10 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -3606,7 +3634,7 @@
         <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -3624,7 +3652,7 @@
         <v>33</v>
       </c>
       <c r="N35" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s">
         <v>22</v>
@@ -3632,7 +3660,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -3641,19 +3669,19 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
@@ -3665,13 +3693,13 @@
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N36" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s">
         <v>22</v>
@@ -3679,7 +3707,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -3688,19 +3716,19 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
@@ -3715,10 +3743,10 @@
         <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N37" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O37" t="s">
         <v>22</v>
@@ -3726,7 +3754,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -3735,19 +3763,19 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -3762,10 +3790,10 @@
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N38" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -3773,7 +3801,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -3782,19 +3810,19 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -3806,13 +3834,13 @@
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M39" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N39" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O39" t="s">
         <v>22</v>
@@ -3820,7 +3848,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -3829,19 +3857,19 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="I40" t="s">
         <v>19</v>
@@ -3856,10 +3884,10 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N40" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O40" t="s">
         <v>22</v>
@@ -3867,7 +3895,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -3876,19 +3904,19 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -3900,13 +3928,13 @@
         <v>31</v>
       </c>
       <c r="L41" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M41" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O41" t="s">
         <v>22</v>
@@ -3914,7 +3942,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -3923,19 +3951,19 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
@@ -3947,13 +3975,13 @@
         <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N42" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O42" t="s">
         <v>22</v>
@@ -3961,7 +3989,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -3970,19 +3998,19 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="I43" t="s">
         <v>19</v>
@@ -3997,10 +4025,10 @@
         <v>32</v>
       </c>
       <c r="M43" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N43" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="O43" t="s">
         <v>22</v>
@@ -4008,7 +4036,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -4017,19 +4045,19 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -4041,13 +4069,13 @@
         <v>31</v>
       </c>
       <c r="L44" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O44" t="s">
         <v>22</v>
@@ -4055,7 +4083,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -4064,19 +4092,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
@@ -4091,10 +4119,10 @@
         <v>32</v>
       </c>
       <c r="M45" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N45" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O45" t="s">
         <v>22</v>
@@ -4102,7 +4130,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -4111,19 +4139,19 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I46" t="s">
         <v>19</v>
@@ -4135,13 +4163,13 @@
         <v>31</v>
       </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M46" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N46" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s">
         <v>22</v>
@@ -4149,7 +4177,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -4158,10 +4186,10 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -4170,7 +4198,7 @@
         <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
@@ -4188,7 +4216,7 @@
         <v>56</v>
       </c>
       <c r="N47" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O47" t="s">
         <v>22</v>
@@ -4196,7 +4224,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -4205,19 +4233,19 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I48" t="s">
         <v>19</v>
@@ -4229,13 +4257,13 @@
         <v>31</v>
       </c>
       <c r="L48" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M48" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N48" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="O48" t="s">
         <v>22</v>
@@ -4243,7 +4271,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -4252,10 +4280,10 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E49" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -4264,7 +4292,7 @@
         <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
@@ -4282,7 +4310,7 @@
         <v>56</v>
       </c>
       <c r="N49" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O49" t="s">
         <v>22</v>
@@ -4290,7 +4318,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -4299,19 +4327,19 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
@@ -4326,10 +4354,10 @@
         <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N50" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="O50" t="s">
         <v>22</v>
@@ -4337,7 +4365,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -4346,10 +4374,10 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -4358,7 +4386,7 @@
         <v>54</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
@@ -4376,7 +4404,7 @@
         <v>56</v>
       </c>
       <c r="N51" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="O51" t="s">
         <v>22</v>
@@ -4384,7 +4412,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -4393,10 +4421,10 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -4405,7 +4433,7 @@
         <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="I52" t="s">
         <v>19</v>
@@ -4423,7 +4451,7 @@
         <v>33</v>
       </c>
       <c r="N52" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="O52" t="s">
         <v>22</v>
@@ -4431,7 +4459,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -4440,19 +4468,19 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="I53" t="s">
         <v>19</v>
@@ -4467,10 +4495,10 @@
         <v>32</v>
       </c>
       <c r="M53" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N53" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O53" t="s">
         <v>22</v>
@@ -4478,7 +4506,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -4487,19 +4515,19 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H54" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
@@ -4514,10 +4542,10 @@
         <v>32</v>
       </c>
       <c r="M54" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N54" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="O54" t="s">
         <v>22</v>
@@ -4525,7 +4553,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -4534,19 +4562,19 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I55" t="s">
         <v>19</v>
@@ -4561,10 +4589,10 @@
         <v>32</v>
       </c>
       <c r="M55" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N55" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O55" t="s">
         <v>22</v>
@@ -4572,7 +4600,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -4581,19 +4609,19 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E56" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="I56" t="s">
         <v>19</v>
@@ -4608,10 +4636,10 @@
         <v>32</v>
       </c>
       <c r="M56" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N56" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O56" t="s">
         <v>22</v>
@@ -4619,7 +4647,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -4628,19 +4656,19 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="I57" t="s">
         <v>19</v>
@@ -4655,10 +4683,10 @@
         <v>32</v>
       </c>
       <c r="M57" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N57" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="O57" t="s">
         <v>22</v>
@@ -4666,7 +4694,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -4675,19 +4703,19 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E58" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s">
         <v>19</v>
@@ -4699,13 +4727,13 @@
         <v>31</v>
       </c>
       <c r="L58" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M58" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N58" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="O58" t="s">
         <v>22</v>
@@ -4713,7 +4741,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -4722,19 +4750,19 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s">
-        <v>288</v>
+        <v>115</v>
       </c>
       <c r="I59" t="s">
         <v>19</v>
@@ -4749,10 +4777,10 @@
         <v>32</v>
       </c>
       <c r="M59" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N59" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="O59" t="s">
         <v>22</v>
@@ -4760,7 +4788,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
@@ -4769,19 +4797,19 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E60" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I60" t="s">
         <v>19</v>
@@ -4793,13 +4821,13 @@
         <v>31</v>
       </c>
       <c r="L60" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M60" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N60" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="O60" t="s">
         <v>22</v>
@@ -4807,7 +4835,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -4816,10 +4844,10 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E61" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -4828,7 +4856,7 @@
         <v>29</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="I61" t="s">
         <v>19</v>
@@ -4846,7 +4874,7 @@
         <v>33</v>
       </c>
       <c r="N61" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="O61" t="s">
         <v>22</v>
@@ -4854,7 +4882,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -4863,19 +4891,19 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="I62" t="s">
         <v>19</v>
@@ -4890,10 +4918,10 @@
         <v>32</v>
       </c>
       <c r="M62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N62" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="O62" t="s">
         <v>22</v>
@@ -4901,7 +4929,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -4910,19 +4938,19 @@
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s">
         <v>19</v>
@@ -4934,13 +4962,13 @@
         <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M63" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N63" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O63" t="s">
         <v>22</v>
@@ -4948,7 +4976,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -4957,10 +4985,10 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -4969,7 +4997,7 @@
         <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="I64" t="s">
         <v>19</v>
@@ -4987,7 +5015,7 @@
         <v>33</v>
       </c>
       <c r="N64" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="O64" t="s">
         <v>22</v>
@@ -4995,7 +5023,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
@@ -5004,19 +5032,19 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="I65" t="s">
         <v>19</v>
@@ -5028,13 +5056,13 @@
         <v>31</v>
       </c>
       <c r="L65" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M65" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N65" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="O65" t="s">
         <v>22</v>
@@ -5042,7 +5070,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -5051,19 +5079,19 @@
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="I66" t="s">
         <v>19</v>
@@ -5075,13 +5103,13 @@
         <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M66" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N66" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O66" t="s">
         <v>22</v>
@@ -5089,7 +5117,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -5098,19 +5126,19 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="I67" t="s">
         <v>19</v>
@@ -5122,13 +5150,13 @@
         <v>31</v>
       </c>
       <c r="L67" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M67" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N67" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="O67" t="s">
         <v>22</v>
@@ -5136,7 +5164,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -5145,19 +5173,19 @@
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E68" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H68" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="I68" t="s">
         <v>19</v>
@@ -5169,13 +5197,13 @@
         <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M68" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N68" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="O68" t="s">
         <v>22</v>
@@ -5183,7 +5211,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -5192,19 +5220,19 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E69" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s">
         <v>19</v>
@@ -5216,13 +5244,13 @@
         <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M69" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N69" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="O69" t="s">
         <v>22</v>
@@ -5230,7 +5258,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -5239,10 +5267,10 @@
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E70" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -5251,7 +5279,7 @@
         <v>54</v>
       </c>
       <c r="H70" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="I70" t="s">
         <v>19</v>
@@ -5269,7 +5297,7 @@
         <v>56</v>
       </c>
       <c r="N70" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="O70" t="s">
         <v>22</v>
@@ -5277,7 +5305,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -5286,10 +5314,10 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E71" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -5298,7 +5326,7 @@
         <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I71" t="s">
         <v>19</v>
@@ -5316,7 +5344,7 @@
         <v>56</v>
       </c>
       <c r="N71" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="O71" t="s">
         <v>22</v>
@@ -5324,7 +5352,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -5333,10 +5361,10 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E72" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -5345,7 +5373,7 @@
         <v>54</v>
       </c>
       <c r="H72" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I72" t="s">
         <v>19</v>
@@ -5363,7 +5391,7 @@
         <v>56</v>
       </c>
       <c r="N72" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="O72" t="s">
         <v>22</v>
@@ -5371,7 +5399,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
@@ -5380,19 +5408,19 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E73" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="I73" t="s">
         <v>19</v>
@@ -5404,13 +5432,13 @@
         <v>31</v>
       </c>
       <c r="L73" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M73" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N73" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="O73" t="s">
         <v>22</v>
@@ -5418,7 +5446,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -5427,19 +5455,19 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E74" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
         <v>19</v>
@@ -5451,13 +5479,13 @@
         <v>31</v>
       </c>
       <c r="L74" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M74" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N74" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="O74" t="s">
         <v>22</v>
@@ -5465,7 +5493,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -5474,19 +5502,19 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E75" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
@@ -5498,13 +5526,13 @@
         <v>31</v>
       </c>
       <c r="L75" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M75" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N75" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="O75" t="s">
         <v>22</v>
@@ -5512,7 +5540,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -5521,19 +5549,19 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E76" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="I76" t="s">
         <v>19</v>
@@ -5545,13 +5573,13 @@
         <v>31</v>
       </c>
       <c r="L76" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M76" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N76" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="O76" t="s">
         <v>22</v>
@@ -5559,7 +5587,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -5568,19 +5596,19 @@
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E77" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="I77" t="s">
         <v>19</v>
@@ -5592,13 +5620,13 @@
         <v>31</v>
       </c>
       <c r="L77" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M77" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N77" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="O77" t="s">
         <v>22</v>
@@ -5606,7 +5634,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -5615,10 +5643,10 @@
         <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -5627,7 +5655,7 @@
         <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -5645,7 +5673,7 @@
         <v>33</v>
       </c>
       <c r="N78" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="O78" t="s">
         <v>22</v>
@@ -5653,7 +5681,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -5662,19 +5690,19 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E79" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I79" t="s">
         <v>19</v>
@@ -5686,13 +5714,13 @@
         <v>31</v>
       </c>
       <c r="L79" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M79" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N79" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="O79" t="s">
         <v>22</v>
@@ -5700,7 +5728,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -5709,19 +5737,19 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E80" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="I80" t="s">
         <v>19</v>
@@ -5733,13 +5761,13 @@
         <v>31</v>
       </c>
       <c r="L80" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M80" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N80" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="O80" t="s">
         <v>22</v>
@@ -5747,7 +5775,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
@@ -5756,10 +5784,10 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E81" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
@@ -5768,7 +5796,7 @@
         <v>29</v>
       </c>
       <c r="H81" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="I81" t="s">
         <v>19</v>
@@ -5786,7 +5814,7 @@
         <v>33</v>
       </c>
       <c r="N81" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="O81" t="s">
         <v>22</v>
@@ -5794,19 +5822,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>386</v>
       </c>
       <c r="D82" t="s">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
         <v>45</v>
@@ -5815,7 +5843,7 @@
         <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="I82" t="s">
         <v>19</v>
@@ -5833,7 +5861,7 @@
         <v>49</v>
       </c>
       <c r="N82" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="O82" t="s">
         <v>22</v>
@@ -5841,28 +5869,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>386</v>
       </c>
       <c r="D83" t="s">
-        <v>382</v>
+        <v>217</v>
       </c>
       <c r="E83" t="s">
-        <v>383</v>
+        <v>218</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I83" t="s">
         <v>19</v>
@@ -5877,10 +5905,10 @@
         <v>32</v>
       </c>
       <c r="M83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N83" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="O83" t="s">
         <v>22</v>
@@ -5888,7 +5916,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -5897,19 +5925,19 @@
         <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H84" t="s">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="I84" t="s">
         <v>19</v>
@@ -5921,13 +5949,13 @@
         <v>31</v>
       </c>
       <c r="L84" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M84" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N84" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O84" t="s">
         <v>22</v>
@@ -5935,7 +5963,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -5944,19 +5972,19 @@
         <v>386</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I85" t="s">
         <v>19</v>
@@ -5968,13 +5996,13 @@
         <v>31</v>
       </c>
       <c r="L85" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M85" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N85" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O85" t="s">
         <v>22</v>
@@ -5982,7 +6010,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -5991,19 +6019,19 @@
         <v>386</v>
       </c>
       <c r="D86" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
         <v>19</v>
@@ -6015,13 +6043,13 @@
         <v>31</v>
       </c>
       <c r="L86" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M86" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N86" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O86" t="s">
         <v>22</v>
@@ -6029,7 +6057,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -6038,19 +6066,19 @@
         <v>386</v>
       </c>
       <c r="D87" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I87" t="s">
         <v>19</v>
@@ -6062,13 +6090,13 @@
         <v>31</v>
       </c>
       <c r="L87" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M87" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N87" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="O87" t="s">
         <v>22</v>
@@ -6076,7 +6104,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -6085,19 +6113,19 @@
         <v>386</v>
       </c>
       <c r="D88" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="E88" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="I88" t="s">
         <v>19</v>
@@ -6109,13 +6137,13 @@
         <v>31</v>
       </c>
       <c r="L88" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N88" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O88" t="s">
         <v>22</v>
@@ -6123,7 +6151,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
@@ -6132,10 +6160,10 @@
         <v>386</v>
       </c>
       <c r="D89" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -6144,7 +6172,7 @@
         <v>54</v>
       </c>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="I89" t="s">
         <v>19</v>
@@ -6162,7 +6190,7 @@
         <v>56</v>
       </c>
       <c r="N89" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O89" t="s">
         <v>22</v>
@@ -6170,7 +6198,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
@@ -6179,10 +6207,10 @@
         <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="E90" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -6191,7 +6219,7 @@
         <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
@@ -6209,7 +6237,7 @@
         <v>33</v>
       </c>
       <c r="N90" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="O90" t="s">
         <v>22</v>
@@ -6217,7 +6245,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -6226,19 +6254,19 @@
         <v>386</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="I91" t="s">
         <v>19</v>
@@ -6253,10 +6281,10 @@
         <v>32</v>
       </c>
       <c r="M91" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N91" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="O91" t="s">
         <v>22</v>
@@ -6264,7 +6292,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
@@ -6273,19 +6301,19 @@
         <v>386</v>
       </c>
       <c r="D92" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="E92" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H92" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="I92" t="s">
         <v>19</v>
@@ -6300,10 +6328,10 @@
         <v>32</v>
       </c>
       <c r="M92" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N92" t="s">
-        <v>405</v>
+        <v>24</v>
       </c>
       <c r="O92" t="s">
         <v>22</v>
@@ -6311,7 +6339,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -6320,19 +6348,19 @@
         <v>386</v>
       </c>
       <c r="D93" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="E93" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="I93" t="s">
         <v>19</v>
@@ -6344,13 +6372,13 @@
         <v>31</v>
       </c>
       <c r="L93" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M93" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N93" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="O93" t="s">
         <v>22</v>
@@ -6358,7 +6386,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
@@ -6367,19 +6395,19 @@
         <v>386</v>
       </c>
       <c r="D94" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="E94" t="s">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
@@ -6394,10 +6422,10 @@
         <v>32</v>
       </c>
       <c r="M94" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N94" t="s">
-        <v>24</v>
+        <v>412</v>
       </c>
       <c r="O94" t="s">
         <v>22</v>
@@ -6405,7 +6433,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -6414,19 +6442,19 @@
         <v>386</v>
       </c>
       <c r="D95" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H95" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I95" t="s">
         <v>19</v>
@@ -6438,13 +6466,13 @@
         <v>31</v>
       </c>
       <c r="L95" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M95" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N95" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O95" t="s">
         <v>22</v>
@@ -6452,7 +6480,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
@@ -6461,10 +6489,10 @@
         <v>386</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -6473,7 +6501,7 @@
         <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="I96" t="s">
         <v>19</v>
@@ -6491,7 +6519,7 @@
         <v>33</v>
       </c>
       <c r="N96" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O96" t="s">
         <v>22</v>
@@ -6499,7 +6527,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -6508,19 +6536,19 @@
         <v>386</v>
       </c>
       <c r="D97" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="E97" t="s">
-        <v>335</v>
+        <v>226</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H97" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="I97" t="s">
         <v>19</v>
@@ -6535,10 +6563,10 @@
         <v>32</v>
       </c>
       <c r="M97" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N97" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="O97" t="s">
         <v>22</v>
@@ -6546,7 +6574,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
@@ -6555,19 +6583,19 @@
         <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>342</v>
       </c>
       <c r="E98" t="s">
-        <v>127</v>
+        <v>343</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="I98" t="s">
         <v>19</v>
@@ -6582,10 +6610,10 @@
         <v>32</v>
       </c>
       <c r="M98" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N98" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O98" t="s">
         <v>22</v>
@@ -6593,7 +6621,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
@@ -6602,10 +6630,10 @@
         <v>386</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="E99" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -6614,7 +6642,7 @@
         <v>29</v>
       </c>
       <c r="H99" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="I99" t="s">
         <v>19</v>
@@ -6632,7 +6660,7 @@
         <v>33</v>
       </c>
       <c r="N99" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O99" t="s">
         <v>22</v>
@@ -6640,7 +6668,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -6649,19 +6677,19 @@
         <v>386</v>
       </c>
       <c r="D100" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="E100" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I100" t="s">
         <v>19</v>
@@ -6673,13 +6701,13 @@
         <v>31</v>
       </c>
       <c r="L100" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M100" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N100" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O100" t="s">
         <v>22</v>
@@ -6687,7 +6715,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -6696,19 +6724,19 @@
         <v>386</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H101" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="I101" t="s">
         <v>19</v>
@@ -6720,13 +6748,13 @@
         <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M101" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N101" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O101" t="s">
         <v>22</v>
@@ -6734,7 +6762,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -6743,19 +6771,19 @@
         <v>386</v>
       </c>
       <c r="D102" t="s">
-        <v>366</v>
+        <v>229</v>
       </c>
       <c r="E102" t="s">
-        <v>367</v>
+        <v>230</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H102" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="I102" t="s">
         <v>19</v>
@@ -6767,13 +6795,13 @@
         <v>31</v>
       </c>
       <c r="L102" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M102" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N102" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O102" t="s">
         <v>22</v>
@@ -6781,7 +6809,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -6790,19 +6818,19 @@
         <v>386</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H103" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I103" t="s">
         <v>19</v>
@@ -6814,13 +6842,13 @@
         <v>31</v>
       </c>
       <c r="L103" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M103" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N103" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="O103" t="s">
         <v>22</v>
@@ -6828,7 +6856,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -6837,19 +6865,19 @@
         <v>386</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H104" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="I104" t="s">
         <v>19</v>
@@ -6864,10 +6892,10 @@
         <v>32</v>
       </c>
       <c r="M104" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N104" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O104" t="s">
         <v>22</v>
@@ -6875,7 +6903,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -6884,19 +6912,19 @@
         <v>386</v>
       </c>
       <c r="D105" t="s">
-        <v>52</v>
+        <v>378</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>379</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
@@ -6908,13 +6936,13 @@
         <v>31</v>
       </c>
       <c r="L105" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M105" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N105" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O105" t="s">
         <v>22</v>
@@ -6922,7 +6950,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -6931,19 +6959,19 @@
         <v>386</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H106" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
         <v>19</v>
@@ -6955,13 +6983,13 @@
         <v>31</v>
       </c>
       <c r="L106" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M106" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N106" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O106" t="s">
         <v>22</v>
@@ -6969,7 +6997,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
@@ -6978,19 +7006,19 @@
         <v>386</v>
       </c>
       <c r="D107" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E107" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H107" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="I107" t="s">
         <v>19</v>
@@ -7002,13 +7030,13 @@
         <v>31</v>
       </c>
       <c r="L107" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M107" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N107" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O107" t="s">
         <v>22</v>
@@ -7016,7 +7044,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
@@ -7025,19 +7053,19 @@
         <v>386</v>
       </c>
       <c r="D108" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="E108" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="I108" t="s">
         <v>19</v>
@@ -7049,13 +7077,13 @@
         <v>31</v>
       </c>
       <c r="L108" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M108" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N108" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O108" t="s">
         <v>22</v>
@@ -7063,7 +7091,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
@@ -7072,16 +7100,16 @@
         <v>386</v>
       </c>
       <c r="D109" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="E109" t="s">
-        <v>383</v>
+        <v>60</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H109" t="s">
         <v>61</v>
@@ -7099,10 +7127,10 @@
         <v>32</v>
       </c>
       <c r="M109" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N109" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O109" t="s">
         <v>22</v>
@@ -7110,7 +7138,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
@@ -7119,16 +7147,16 @@
         <v>386</v>
       </c>
       <c r="D110" t="s">
-        <v>299</v>
+        <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="F110" t="s">
         <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H110" t="s">
         <v>105</v>
@@ -7146,10 +7174,10 @@
         <v>32</v>
       </c>
       <c r="M110" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N110" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="O110" t="s">
         <v>22</v>
@@ -7157,7 +7185,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
@@ -7166,19 +7194,19 @@
         <v>386</v>
       </c>
       <c r="D111" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="E111" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I111" t="s">
         <v>19</v>
@@ -7190,13 +7218,13 @@
         <v>31</v>
       </c>
       <c r="L111" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M111" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N111" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O111" t="s">
         <v>22</v>
@@ -7204,7 +7232,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
@@ -7213,19 +7241,19 @@
         <v>386</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="E112" t="s">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H112" t="s">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="I112" t="s">
         <v>19</v>
@@ -7240,10 +7268,10 @@
         <v>32</v>
       </c>
       <c r="M112" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N112" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O112" t="s">
         <v>22</v>
@@ -7251,7 +7279,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -7260,19 +7288,19 @@
         <v>386</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>450</v>
       </c>
       <c r="E113" t="s">
-        <v>123</v>
+        <v>451</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H113" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="I113" t="s">
         <v>19</v>
@@ -7284,13 +7312,13 @@
         <v>31</v>
       </c>
       <c r="L113" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M113" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N113" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="O113" t="s">
         <v>22</v>
@@ -7298,7 +7326,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -7307,19 +7335,19 @@
         <v>386</v>
       </c>
       <c r="D114" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
         <v>19</v>
@@ -7331,13 +7359,13 @@
         <v>31</v>
       </c>
       <c r="L114" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M114" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N114" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="O114" t="s">
         <v>22</v>
@@ -7345,7 +7373,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -7354,19 +7382,19 @@
         <v>386</v>
       </c>
       <c r="D115" t="s">
-        <v>450</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
-        <v>451</v>
+        <v>145</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="I115" t="s">
         <v>19</v>
@@ -7378,13 +7406,13 @@
         <v>31</v>
       </c>
       <c r="L115" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M115" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N115" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O115" t="s">
         <v>22</v>
@@ -7392,7 +7420,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
@@ -7401,19 +7429,19 @@
         <v>386</v>
       </c>
       <c r="D116" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="I116" t="s">
         <v>19</v>
@@ -7425,13 +7453,13 @@
         <v>31</v>
       </c>
       <c r="L116" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M116" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N116" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="O116" t="s">
         <v>22</v>
@@ -7439,7 +7467,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -7448,19 +7476,19 @@
         <v>386</v>
       </c>
       <c r="D117" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I117" t="s">
         <v>19</v>
@@ -7472,13 +7500,13 @@
         <v>31</v>
       </c>
       <c r="L117" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M117" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N117" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O117" t="s">
         <v>22</v>
@@ -7486,7 +7514,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
@@ -7495,19 +7523,19 @@
         <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H118" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="I118" t="s">
         <v>19</v>
@@ -7522,10 +7550,10 @@
         <v>32</v>
       </c>
       <c r="M118" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N118" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O118" t="s">
         <v>22</v>
@@ -7533,7 +7561,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
@@ -7542,19 +7570,19 @@
         <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H119" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I119" t="s">
         <v>19</v>
@@ -7566,13 +7594,13 @@
         <v>31</v>
       </c>
       <c r="L119" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M119" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N119" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="O119" t="s">
         <v>22</v>
@@ -7580,7 +7608,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -7589,19 +7617,19 @@
         <v>386</v>
       </c>
       <c r="D120" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="E120" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H120" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I120" t="s">
         <v>19</v>
@@ -7613,13 +7641,13 @@
         <v>31</v>
       </c>
       <c r="L120" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M120" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N120" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O120" t="s">
         <v>22</v>
@@ -7627,7 +7655,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -7636,19 +7664,19 @@
         <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H121" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I121" t="s">
         <v>19</v>
@@ -7660,13 +7688,13 @@
         <v>31</v>
       </c>
       <c r="L121" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M121" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N121" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="O121" t="s">
         <v>22</v>
@@ -7674,7 +7702,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -7683,19 +7711,19 @@
         <v>386</v>
       </c>
       <c r="D122" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="E122" t="s">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H122" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I122" t="s">
         <v>19</v>
@@ -7707,13 +7735,13 @@
         <v>31</v>
       </c>
       <c r="L122" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M122" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N122" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O122" t="s">
         <v>22</v>
@@ -7721,7 +7749,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -7730,10 +7758,10 @@
         <v>386</v>
       </c>
       <c r="D123" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="E123" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -7742,7 +7770,7 @@
         <v>38</v>
       </c>
       <c r="H123" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
@@ -7760,7 +7788,7 @@
         <v>40</v>
       </c>
       <c r="N123" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O123" t="s">
         <v>22</v>
@@ -7768,7 +7796,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -7777,19 +7805,19 @@
         <v>386</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E124" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H124" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
@@ -7801,13 +7829,13 @@
         <v>31</v>
       </c>
       <c r="L124" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M124" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N124" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="O124" t="s">
         <v>22</v>
@@ -7815,7 +7843,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -7824,19 +7852,19 @@
         <v>386</v>
       </c>
       <c r="D125" t="s">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H125" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="I125" t="s">
         <v>19</v>
@@ -7851,10 +7879,10 @@
         <v>32</v>
       </c>
       <c r="M125" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N125" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O125" t="s">
         <v>22</v>
@@ -7862,7 +7890,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
@@ -7871,19 +7899,19 @@
         <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="E126" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="F126" t="s">
         <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
@@ -7898,10 +7926,10 @@
         <v>48</v>
       </c>
       <c r="M126" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N126" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O126" t="s">
         <v>22</v>
@@ -7909,7 +7937,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
@@ -7918,19 +7946,19 @@
         <v>386</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H127" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I127" t="s">
         <v>19</v>
@@ -7942,13 +7970,13 @@
         <v>31</v>
       </c>
       <c r="L127" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M127" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N127" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O127" t="s">
         <v>22</v>
@@ -7956,7 +7984,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -7965,10 +7993,10 @@
         <v>386</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="E128" t="s">
-        <v>324</v>
+        <v>109</v>
       </c>
       <c r="F128" t="s">
         <v>45</v>
@@ -7977,7 +8005,7 @@
         <v>83</v>
       </c>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="I128" t="s">
         <v>19</v>
@@ -7995,7 +8023,7 @@
         <v>85</v>
       </c>
       <c r="N128" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="O128" t="s">
         <v>22</v>
@@ -8003,7 +8031,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -8012,19 +8040,19 @@
         <v>386</v>
       </c>
       <c r="D129" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E129" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H129" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="I129" t="s">
         <v>19</v>
@@ -8036,13 +8064,13 @@
         <v>31</v>
       </c>
       <c r="L129" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M129" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N129" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O129" t="s">
         <v>22</v>
@@ -8050,7 +8078,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -8059,10 +8087,10 @@
         <v>386</v>
       </c>
       <c r="D130" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="E130" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="F130" t="s">
         <v>45</v>
@@ -8071,7 +8099,7 @@
         <v>83</v>
       </c>
       <c r="H130" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
@@ -8089,7 +8117,7 @@
         <v>85</v>
       </c>
       <c r="N130" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="O130" t="s">
         <v>22</v>
@@ -8097,7 +8125,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -8106,10 +8134,10 @@
         <v>386</v>
       </c>
       <c r="D131" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
       <c r="E131" t="s">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -8118,7 +8146,7 @@
         <v>29</v>
       </c>
       <c r="H131" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="I131" t="s">
         <v>19</v>
@@ -8136,7 +8164,7 @@
         <v>33</v>
       </c>
       <c r="N131" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="O131" t="s">
         <v>22</v>
@@ -8144,7 +8172,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
@@ -8153,19 +8181,19 @@
         <v>386</v>
       </c>
       <c r="D132" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="E132" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H132" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
@@ -8177,13 +8205,13 @@
         <v>31</v>
       </c>
       <c r="L132" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M132" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N132" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="O132" t="s">
         <v>22</v>
@@ -8191,7 +8219,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -8200,19 +8228,19 @@
         <v>386</v>
       </c>
       <c r="D133" t="s">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="E133" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H133" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="I133" t="s">
         <v>19</v>
@@ -8227,10 +8255,10 @@
         <v>32</v>
       </c>
       <c r="M133" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N133" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O133" t="s">
         <v>22</v>
@@ -8238,7 +8266,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
@@ -8247,10 +8275,10 @@
         <v>386</v>
       </c>
       <c r="D134" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E134" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -8259,7 +8287,7 @@
         <v>29</v>
       </c>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="I134" t="s">
         <v>19</v>
@@ -8277,7 +8305,7 @@
         <v>33</v>
       </c>
       <c r="N134" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="O134" t="s">
         <v>22</v>
@@ -8285,7 +8313,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
@@ -8294,19 +8322,19 @@
         <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="E135" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I135" t="s">
         <v>19</v>
@@ -8321,10 +8349,10 @@
         <v>32</v>
       </c>
       <c r="M135" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N135" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="O135" t="s">
         <v>22</v>
@@ -8332,7 +8360,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
@@ -8341,19 +8369,19 @@
         <v>386</v>
       </c>
       <c r="D136" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="E136" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H136" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="I136" t="s">
         <v>19</v>
@@ -8368,10 +8396,10 @@
         <v>32</v>
       </c>
       <c r="M136" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N136" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O136" t="s">
         <v>22</v>
@@ -8379,7 +8407,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
@@ -8388,19 +8416,19 @@
         <v>386</v>
       </c>
       <c r="D137" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="E137" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
@@ -8415,10 +8443,10 @@
         <v>32</v>
       </c>
       <c r="M137" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N137" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="O137" t="s">
         <v>22</v>
@@ -8426,7 +8454,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
@@ -8435,19 +8463,19 @@
         <v>386</v>
       </c>
       <c r="D138" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="E138" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="I138" t="s">
         <v>19</v>
@@ -8462,10 +8490,10 @@
         <v>32</v>
       </c>
       <c r="M138" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N138" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="O138" t="s">
         <v>22</v>
@@ -8473,7 +8501,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
@@ -8482,19 +8510,19 @@
         <v>386</v>
       </c>
       <c r="D139" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="E139" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H139" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="I139" t="s">
         <v>19</v>
@@ -8509,10 +8537,10 @@
         <v>32</v>
       </c>
       <c r="M139" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N139" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="O139" t="s">
         <v>22</v>
@@ -8520,7 +8548,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
@@ -8529,19 +8557,19 @@
         <v>386</v>
       </c>
       <c r="D140" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H140" t="s">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
@@ -8556,10 +8584,10 @@
         <v>32</v>
       </c>
       <c r="M140" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N140" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O140" t="s">
         <v>22</v>
@@ -8567,7 +8595,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
@@ -8576,19 +8604,19 @@
         <v>386</v>
       </c>
       <c r="D141" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="E141" t="s">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H141" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="I141" t="s">
         <v>19</v>
@@ -8603,10 +8631,10 @@
         <v>32</v>
       </c>
       <c r="M141" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N141" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="O141" t="s">
         <v>22</v>
@@ -8614,7 +8642,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
@@ -8623,19 +8651,19 @@
         <v>386</v>
       </c>
       <c r="D142" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E142" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H142" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="I142" t="s">
         <v>19</v>
@@ -8650,10 +8678,10 @@
         <v>32</v>
       </c>
       <c r="M142" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N142" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="O142" t="s">
         <v>22</v>
@@ -8661,7 +8689,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
@@ -8670,10 +8698,10 @@
         <v>386</v>
       </c>
       <c r="D143" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E143" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -8682,7 +8710,7 @@
         <v>38</v>
       </c>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I143" t="s">
         <v>19</v>
@@ -8700,7 +8728,7 @@
         <v>40</v>
       </c>
       <c r="N143" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="O143" t="s">
         <v>22</v>
@@ -8708,7 +8736,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
@@ -8717,10 +8745,10 @@
         <v>386</v>
       </c>
       <c r="D144" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="E144" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
@@ -8729,7 +8757,7 @@
         <v>54</v>
       </c>
       <c r="H144" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="I144" t="s">
         <v>19</v>
@@ -8747,7 +8775,7 @@
         <v>56</v>
       </c>
       <c r="N144" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="O144" t="s">
         <v>22</v>
@@ -8755,7 +8783,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
@@ -8764,19 +8792,19 @@
         <v>386</v>
       </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="E145" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="I145" t="s">
         <v>19</v>
@@ -8788,13 +8816,13 @@
         <v>31</v>
       </c>
       <c r="L145" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M145" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N145" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="O145" t="s">
         <v>22</v>
@@ -8802,7 +8830,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
@@ -8811,16 +8839,16 @@
         <v>386</v>
       </c>
       <c r="D146" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="E146" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H146" t="s">
         <v>39</v>
@@ -8838,10 +8866,10 @@
         <v>32</v>
       </c>
       <c r="M146" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N146" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="O146" t="s">
         <v>22</v>
@@ -8849,7 +8877,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
@@ -8858,16 +8886,16 @@
         <v>386</v>
       </c>
       <c r="D147" t="s">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="E147" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
       <c r="F147" t="s">
         <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H147" t="s">
         <v>71</v>
@@ -8885,10 +8913,10 @@
         <v>48</v>
       </c>
       <c r="M147" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="N147" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O147" t="s">
         <v>22</v>
@@ -8896,7 +8924,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -8905,19 +8933,19 @@
         <v>386</v>
       </c>
       <c r="D148" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="E148" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
         <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H148" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="I148" t="s">
         <v>19</v>
@@ -8932,10 +8960,10 @@
         <v>32</v>
       </c>
       <c r="M148" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N148" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="O148" t="s">
         <v>22</v>
@@ -8943,7 +8971,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -8952,19 +8980,19 @@
         <v>386</v>
       </c>
       <c r="D149" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="E149" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H149" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="I149" t="s">
         <v>19</v>
@@ -8976,13 +9004,13 @@
         <v>31</v>
       </c>
       <c r="L149" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M149" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N149" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="O149" t="s">
         <v>22</v>
@@ -8990,7 +9018,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
@@ -8999,19 +9027,19 @@
         <v>386</v>
       </c>
       <c r="D150" t="s">
-        <v>274</v>
+        <v>526</v>
       </c>
       <c r="E150" t="s">
-        <v>275</v>
+        <v>527</v>
       </c>
       <c r="F150" t="s">
         <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H150" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="I150" t="s">
         <v>19</v>
@@ -9026,10 +9054,10 @@
         <v>32</v>
       </c>
       <c r="M150" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N150" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="O150" t="s">
         <v>22</v>
@@ -9037,7 +9065,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
@@ -9046,19 +9074,19 @@
         <v>386</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>358</v>
       </c>
       <c r="E151" t="s">
-        <v>178</v>
+        <v>359</v>
       </c>
       <c r="F151" t="s">
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I151" t="s">
         <v>19</v>
@@ -9073,10 +9101,10 @@
         <v>32</v>
       </c>
       <c r="M151" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N151" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="O151" t="s">
         <v>22</v>
@@ -9084,7 +9112,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
@@ -9093,19 +9121,19 @@
         <v>386</v>
       </c>
       <c r="D152" t="s">
-        <v>526</v>
+        <v>98</v>
       </c>
       <c r="E152" t="s">
-        <v>527</v>
+        <v>99</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H152" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="I152" t="s">
         <v>19</v>
@@ -9117,13 +9145,13 @@
         <v>31</v>
       </c>
       <c r="L152" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M152" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N152" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="O152" t="s">
         <v>22</v>
@@ -9131,7 +9159,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
@@ -9140,10 +9168,10 @@
         <v>386</v>
       </c>
       <c r="D153" t="s">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="E153" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
       <c r="F153" t="s">
         <v>18</v>
@@ -9152,7 +9180,7 @@
         <v>54</v>
       </c>
       <c r="H153" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
@@ -9170,7 +9198,7 @@
         <v>56</v>
       </c>
       <c r="N153" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="O153" t="s">
         <v>22</v>
@@ -9178,7 +9206,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
@@ -9187,19 +9215,19 @@
         <v>386</v>
       </c>
       <c r="D154" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E154" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H154" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="I154" t="s">
         <v>19</v>
@@ -9211,13 +9239,13 @@
         <v>31</v>
       </c>
       <c r="L154" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M154" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N154" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="O154" t="s">
         <v>22</v>
@@ -9225,7 +9253,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
@@ -9234,10 +9262,10 @@
         <v>386</v>
       </c>
       <c r="D155" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="E155" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
@@ -9246,7 +9274,7 @@
         <v>54</v>
       </c>
       <c r="H155" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
@@ -9264,7 +9292,7 @@
         <v>56</v>
       </c>
       <c r="N155" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="O155" t="s">
         <v>22</v>
@@ -9272,7 +9300,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
@@ -9281,10 +9309,10 @@
         <v>386</v>
       </c>
       <c r="D156" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E156" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
@@ -9293,7 +9321,7 @@
         <v>29</v>
       </c>
       <c r="H156" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="I156" t="s">
         <v>19</v>
@@ -9311,7 +9339,7 @@
         <v>33</v>
       </c>
       <c r="N156" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O156" t="s">
         <v>22</v>
@@ -9319,7 +9347,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
@@ -9328,10 +9356,10 @@
         <v>386</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E157" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
@@ -9340,7 +9368,7 @@
         <v>54</v>
       </c>
       <c r="H157" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
@@ -9358,7 +9386,7 @@
         <v>56</v>
       </c>
       <c r="N157" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O157" t="s">
         <v>22</v>
@@ -9366,7 +9394,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
@@ -9375,19 +9403,19 @@
         <v>386</v>
       </c>
       <c r="D158" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="E158" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H158" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="I158" t="s">
         <v>19</v>
@@ -9402,106 +9430,12 @@
         <v>32</v>
       </c>
       <c r="M158" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N158" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="O158" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>541</v>
-      </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" t="s">
-        <v>386</v>
-      </c>
-      <c r="D159" t="s">
-        <v>338</v>
-      </c>
-      <c r="E159" t="s">
-        <v>339</v>
-      </c>
-      <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>54</v>
-      </c>
-      <c r="H159" t="s">
-        <v>151</v>
-      </c>
-      <c r="I159" t="s">
-        <v>19</v>
-      </c>
-      <c r="J159" t="s">
-        <v>20</v>
-      </c>
-      <c r="K159" t="s">
-        <v>31</v>
-      </c>
-      <c r="L159" t="s">
-        <v>32</v>
-      </c>
-      <c r="M159" t="s">
-        <v>56</v>
-      </c>
-      <c r="N159" t="s">
-        <v>542</v>
-      </c>
-      <c r="O159" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>543</v>
-      </c>
-      <c r="B160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" t="s">
-        <v>386</v>
-      </c>
-      <c r="D160" t="s">
-        <v>243</v>
-      </c>
-      <c r="E160" t="s">
-        <v>244</v>
-      </c>
-      <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>54</v>
-      </c>
-      <c r="H160" t="s">
-        <v>245</v>
-      </c>
-      <c r="I160" t="s">
-        <v>19</v>
-      </c>
-      <c r="J160" t="s">
-        <v>20</v>
-      </c>
-      <c r="K160" t="s">
-        <v>31</v>
-      </c>
-      <c r="L160" t="s">
-        <v>32</v>
-      </c>
-      <c r="M160" t="s">
-        <v>56</v>
-      </c>
-      <c r="N160" t="s">
-        <v>544</v>
-      </c>
-      <c r="O160" t="s">
         <v>22</v>
       </c>
     </row>
